--- a/disagreement_matrix/engineering_version/rsj_matrix_records/Parkinson_withoutdupl_75_odi.xlsx
+++ b/disagreement_matrix/engineering_version/rsj_matrix_records/Parkinson_withoutdupl_75_odi.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I196"/>
+  <dimension ref="A1:H196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -394,5663 +394,5075 @@
       <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1010345691281237</v>
+        <v>0.1113221376154551</v>
       </c>
       <c r="C2">
-        <v>0.1314430582757828</v>
+        <v>0.1524111230280528</v>
       </c>
       <c r="D2">
-        <v>0.1310279208717341</v>
+        <v>0.1455102572646967</v>
       </c>
       <c r="E2">
-        <v>0.1483516885886771</v>
+        <v>0.1689654018671022</v>
       </c>
       <c r="F2">
-        <v>0.09186588116194724</v>
+        <v>0.1002042347034571</v>
       </c>
       <c r="G2">
-        <v>0.1445189352002302</v>
+        <v>0.1638929722217377</v>
       </c>
       <c r="H2">
-        <v>0.1340262759412269</v>
-      </c>
-      <c r="I2">
-        <v>0.1177316708322779</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.1576938732994983</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1069558332039697</v>
+        <v>0.1227309409669976</v>
       </c>
       <c r="C3">
-        <v>0.1217275806464223</v>
+        <v>0.141363809802768</v>
       </c>
       <c r="D3">
-        <v>0.1139285345644192</v>
+        <v>0.1319533943464564</v>
       </c>
       <c r="E3">
-        <v>0.09742436714978642</v>
+        <v>0.1146223544242884</v>
       </c>
       <c r="F3">
-        <v>0.1002994643848053</v>
+        <v>0.1158026168206033</v>
       </c>
       <c r="G3">
-        <v>0.1698660891928788</v>
+        <v>0.1966986368762295</v>
       </c>
       <c r="H3">
-        <v>0.1523436342140382</v>
-      </c>
-      <c r="I3">
-        <v>0.1374544966436799</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.1768282467626568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1078106758100491</v>
+        <v>0.1251297537386926</v>
       </c>
       <c r="C4">
-        <v>0.1170613872738042</v>
+        <v>0.1332306835273899</v>
       </c>
       <c r="D4">
-        <v>0.1391102608525256</v>
+        <v>0.1564172497245673</v>
       </c>
       <c r="E4">
-        <v>0.1289023075759962</v>
+        <v>0.1442208216661476</v>
       </c>
       <c r="F4">
-        <v>0.1293384479118376</v>
+        <v>0.1484895889054332</v>
       </c>
       <c r="G4">
-        <v>0.1438230711978142</v>
+        <v>0.1576090237191414</v>
       </c>
       <c r="H4">
-        <v>0.1181288572622866</v>
-      </c>
-      <c r="I4">
-        <v>0.1158249921156865</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.1349028787186281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1188088487787957</v>
+        <v>0.1378561053721546</v>
       </c>
       <c r="C5">
-        <v>0.1263755066875476</v>
+        <v>0.1472243978496229</v>
       </c>
       <c r="D5">
-        <v>0.1211168925673212</v>
+        <v>0.1369160558823499</v>
       </c>
       <c r="E5">
-        <v>0.1127865329129406</v>
+        <v>0.1273089354893992</v>
       </c>
       <c r="F5">
-        <v>0.1144328830097524</v>
+        <v>0.1320013653896724</v>
       </c>
       <c r="G5">
-        <v>0.1539116297923876</v>
+        <v>0.1772364341309776</v>
       </c>
       <c r="H5">
-        <v>0.1235047801017664</v>
-      </c>
-      <c r="I5">
-        <v>0.1290629261494884</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.1414567058858232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1227522059305173</v>
+        <v>0.1421183969717182</v>
       </c>
       <c r="C6">
-        <v>0.1877078958031463</v>
+        <v>0.2196533032853057</v>
       </c>
       <c r="D6">
-        <v>0.07444260969394394</v>
+        <v>0.08252545216590346</v>
       </c>
       <c r="E6">
-        <v>0.08606426924533886</v>
+        <v>0.09658322565318996</v>
       </c>
       <c r="F6">
-        <v>0.09495932040808777</v>
+        <v>0.1035734432557367</v>
       </c>
       <c r="G6">
-        <v>0.1623640719079513</v>
+        <v>0.1886870944926946</v>
       </c>
       <c r="H6">
-        <v>0.1444609223080772</v>
-      </c>
-      <c r="I6">
-        <v>0.1272487047029373</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.1668590841754514</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1061609978891845</v>
+        <v>0.1218310527431204</v>
       </c>
       <c r="C7">
-        <v>0.1231257969920577</v>
+        <v>0.1411406656629363</v>
       </c>
       <c r="D7">
-        <v>0.140761008519708</v>
+        <v>0.15727386129291</v>
       </c>
       <c r="E7">
-        <v>0.1236545284782124</v>
+        <v>0.1382829536943889</v>
       </c>
       <c r="F7">
-        <v>0.1260069619897176</v>
+        <v>0.1429000092872278</v>
       </c>
       <c r="G7">
-        <v>0.1432808258257066</v>
+        <v>0.1588584158911704</v>
       </c>
       <c r="H7">
-        <v>0.1223202054659521</v>
-      </c>
-      <c r="I7">
-        <v>0.1146896748394609</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.1397130414282461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1112914511457817</v>
+        <v>0.1179997033075399</v>
       </c>
       <c r="C8">
-        <v>0.09403181379083921</v>
+        <v>0.1016910044276262</v>
       </c>
       <c r="D8">
-        <v>0.08679495214360894</v>
+        <v>0.09079729004209676</v>
       </c>
       <c r="E8">
-        <v>0.08552952837243373</v>
+        <v>0.09388265544431873</v>
       </c>
       <c r="F8">
-        <v>0.3065676908443294</v>
+        <v>0.3383668434695586</v>
       </c>
       <c r="G8">
-        <v>0.1458380207627406</v>
+        <v>0.1642944846297662</v>
       </c>
       <c r="H8">
-        <v>0.08468040308936564</v>
-      </c>
-      <c r="I8">
-        <v>0.08526613985090073</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.09296801867909368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1333335395240195</v>
+        <v>0.1514376772839221</v>
       </c>
       <c r="C9">
-        <v>0.1204511010088215</v>
+        <v>0.1329475192998788</v>
       </c>
       <c r="D9">
-        <v>0.1290767256793708</v>
+        <v>0.145492809344243</v>
       </c>
       <c r="E9">
-        <v>0.1249448950214665</v>
+        <v>0.1440104460484647</v>
       </c>
       <c r="F9">
-        <v>0.1285712287396977</v>
+        <v>0.1376806913241071</v>
       </c>
       <c r="G9">
-        <v>0.1523152251697025</v>
+        <v>0.1712860747196536</v>
       </c>
       <c r="H9">
-        <v>0.1030116318967136</v>
-      </c>
-      <c r="I9">
-        <v>0.108295652960208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.1171447819797308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1309565943225515</v>
+        <v>0.1517887904322458</v>
       </c>
       <c r="C10">
-        <v>0.1260846606024905</v>
+        <v>0.1418030811782801</v>
       </c>
       <c r="D10">
-        <v>0.1342863565277258</v>
+        <v>0.1516522243696859</v>
       </c>
       <c r="E10">
-        <v>0.1218197831797757</v>
+        <v>0.1401302115399928</v>
       </c>
       <c r="F10">
-        <v>0.1146628767122645</v>
+        <v>0.1343021852737908</v>
       </c>
       <c r="G10">
-        <v>0.1288316030251952</v>
+        <v>0.1459444765245557</v>
       </c>
       <c r="H10">
-        <v>0.117244658294591</v>
-      </c>
-      <c r="I10">
-        <v>0.1261134673354058</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.134379030681449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.09754710844321854</v>
+        <v>0.1158230073128679</v>
       </c>
       <c r="C11">
-        <v>0.1266714742357527</v>
+        <v>0.1438374674120546</v>
       </c>
       <c r="D11">
-        <v>0.1356448517592066</v>
+        <v>0.1579757301897724</v>
       </c>
       <c r="E11">
-        <v>0.1186166728396515</v>
+        <v>0.1399093157077732</v>
       </c>
       <c r="F11">
-        <v>0.1022290313711771</v>
+        <v>0.1178341435623497</v>
       </c>
       <c r="G11">
-        <v>0.148142252714475</v>
+        <v>0.1685384001482008</v>
       </c>
       <c r="H11">
-        <v>0.1359424449424841</v>
-      </c>
-      <c r="I11">
-        <v>0.1352061636940347</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.1560819356669814</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1075184773750995</v>
+        <v>0.1254154380019993</v>
       </c>
       <c r="C12">
-        <v>0.1221128055647996</v>
+        <v>0.1406125130465926</v>
       </c>
       <c r="D12">
-        <v>0.1236858854791651</v>
+        <v>0.1416877392622063</v>
       </c>
       <c r="E12">
-        <v>0.1074301049389887</v>
+        <v>0.1244310136444122</v>
       </c>
       <c r="F12">
-        <v>0.1045461163866542</v>
+        <v>0.1209734726632669</v>
       </c>
       <c r="G12">
-        <v>0.1654291568991232</v>
+        <v>0.1937643908984852</v>
       </c>
       <c r="H12">
-        <v>0.1336516120858253</v>
-      </c>
-      <c r="I12">
-        <v>0.1356258412703444</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.1531154324830376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1187684406603567</v>
+        <v>0.1293969951330943</v>
       </c>
       <c r="C13">
-        <v>0.1262760391319094</v>
+        <v>0.1462091157099054</v>
       </c>
       <c r="D13">
-        <v>0.1334766645045538</v>
+        <v>0.1519424454053048</v>
       </c>
       <c r="E13">
-        <v>0.1283675262818185</v>
+        <v>0.147462117269625</v>
       </c>
       <c r="F13">
-        <v>0.09942690038174776</v>
+        <v>0.1085852671598841</v>
       </c>
       <c r="G13">
-        <v>0.1462290988898011</v>
+        <v>0.1650600256791984</v>
       </c>
       <c r="H13">
-        <v>0.1349384830974498</v>
-      </c>
-      <c r="I13">
-        <v>0.1125168470523628</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.1513440336429879</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1242690301300351</v>
+        <v>0.1395963131627163</v>
       </c>
       <c r="C14">
-        <v>0.1223242437741373</v>
+        <v>0.1381475228766698</v>
       </c>
       <c r="D14">
-        <v>0.1304062767848532</v>
+        <v>0.1497891557482373</v>
       </c>
       <c r="E14">
-        <v>0.1292933233979204</v>
+        <v>0.1473963031207544</v>
       </c>
       <c r="F14">
-        <v>0.102332591134155</v>
+        <v>0.1138347346210431</v>
       </c>
       <c r="G14">
-        <v>0.1506774958945969</v>
+        <v>0.1692489568953381</v>
       </c>
       <c r="H14">
-        <v>0.123768110547603</v>
-      </c>
-      <c r="I14">
-        <v>0.1169289283366991</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.1419870135752411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1381046347830242</v>
+        <v>0.1577906943377288</v>
       </c>
       <c r="C15">
-        <v>0.1055769689647325</v>
+        <v>0.119775621328407</v>
       </c>
       <c r="D15">
-        <v>0.1362423833347522</v>
+        <v>0.1537147699659856</v>
       </c>
       <c r="E15">
-        <v>0.1248285374695232</v>
+        <v>0.1412828016800833</v>
       </c>
       <c r="F15">
-        <v>0.1682640283769713</v>
+        <v>0.1752735718926503</v>
       </c>
       <c r="G15">
-        <v>0.1080287232165669</v>
+        <v>0.1268439000677816</v>
       </c>
       <c r="H15">
-        <v>0.109899639559351</v>
-      </c>
-      <c r="I15">
-        <v>0.1090550842950786</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.1253186407273634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1307671347301665</v>
+        <v>0.14442470048873</v>
       </c>
       <c r="C16">
-        <v>0.1147757245224886</v>
+        <v>0.1286495477574776</v>
       </c>
       <c r="D16">
-        <v>0.1316838891392292</v>
+        <v>0.1487935838849557</v>
       </c>
       <c r="E16">
-        <v>0.1258954913060633</v>
+        <v>0.1398370687112393</v>
       </c>
       <c r="F16">
-        <v>0.1172372771934051</v>
+        <v>0.1244511140743277</v>
       </c>
       <c r="G16">
-        <v>0.1699773427697849</v>
+        <v>0.205527818274832</v>
       </c>
       <c r="H16">
-        <v>0.09792353875303018</v>
-      </c>
-      <c r="I16">
-        <v>0.1117396015858321</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.1083161668084377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1461103261034991</v>
+        <v>0.1634603874919482</v>
       </c>
       <c r="C17">
-        <v>0.1160514376857199</v>
+        <v>0.1314600223896973</v>
       </c>
       <c r="D17">
-        <v>0.1232109190008551</v>
+        <v>0.1406775239485101</v>
       </c>
       <c r="E17">
-        <v>0.1212166770794667</v>
+        <v>0.1382842635274113</v>
       </c>
       <c r="F17">
-        <v>0.14872137225712</v>
+        <v>0.1649410139470961</v>
       </c>
       <c r="G17">
-        <v>0.1203042113395919</v>
+        <v>0.1375637651651933</v>
       </c>
       <c r="H17">
-        <v>0.1087342339087184</v>
-      </c>
-      <c r="I17">
-        <v>0.1156508226250287</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.1236130235301437</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1601810201454879</v>
+        <v>0.193268951392648</v>
       </c>
       <c r="C18">
-        <v>0.1665466255390613</v>
+        <v>0.1984627663994141</v>
       </c>
       <c r="D18">
-        <v>0.05917608419950231</v>
+        <v>0.07051478573720053</v>
       </c>
       <c r="E18">
-        <v>0.07222574283822518</v>
+        <v>0.08071091733092529</v>
       </c>
       <c r="F18">
-        <v>0.07995156342836925</v>
+        <v>0.09186416722572809</v>
       </c>
       <c r="G18">
-        <v>0.1509958874871343</v>
+        <v>0.1717043883865802</v>
       </c>
       <c r="H18">
-        <v>0.1630915625880922</v>
-      </c>
-      <c r="I18">
-        <v>0.1478315137741275</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0.1934740235275039</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1064062021588521</v>
+        <v>0.1207352186033462</v>
       </c>
       <c r="C19">
-        <v>0.1267621069305848</v>
+        <v>0.1436547353020606</v>
       </c>
       <c r="D19">
-        <v>0.1319778211844036</v>
+        <v>0.1503355066967503</v>
       </c>
       <c r="E19">
-        <v>0.141193879538045</v>
+        <v>0.1493817602327142</v>
       </c>
       <c r="F19">
-        <v>0.09962213049737398</v>
+        <v>0.1119445896073086</v>
       </c>
       <c r="G19">
-        <v>0.1576702806152132</v>
+        <v>0.1816574388363841</v>
       </c>
       <c r="H19">
-        <v>0.1236219659255005</v>
-      </c>
-      <c r="I19">
-        <v>0.1127456131500268</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.1422907507214359</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1192977803141069</v>
+        <v>0.1351858111848909</v>
       </c>
       <c r="C20">
-        <v>0.1208869789799866</v>
+        <v>0.1363680493592358</v>
       </c>
       <c r="D20">
-        <v>0.132783286808316</v>
+        <v>0.1476386647740625</v>
       </c>
       <c r="E20">
-        <v>0.1288464342250805</v>
+        <v>0.1426988592219301</v>
       </c>
       <c r="F20">
-        <v>0.1142317212536401</v>
+        <v>0.1290902524569248</v>
       </c>
       <c r="G20">
-        <v>0.1438205800900899</v>
+        <v>0.1641189022528784</v>
       </c>
       <c r="H20">
-        <v>0.124910893808813</v>
-      </c>
-      <c r="I20">
-        <v>0.115222324519967</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.1448994607500775</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.110214301794858</v>
+        <v>0.1245169654812036</v>
       </c>
       <c r="C21">
-        <v>0.119620055116665</v>
+        <v>0.1358632694967267</v>
       </c>
       <c r="D21">
-        <v>0.1466757830585022</v>
+        <v>0.1633964932584009</v>
       </c>
       <c r="E21">
-        <v>0.1571720757519422</v>
+        <v>0.1741792573330826</v>
       </c>
       <c r="F21">
-        <v>0.1025209058094487</v>
+        <v>0.1150717733485451</v>
       </c>
       <c r="G21">
-        <v>0.1288731509137267</v>
+        <v>0.1504335926608768</v>
       </c>
       <c r="H21">
-        <v>0.1203118728053151</v>
-      </c>
-      <c r="I21">
-        <v>0.1146118547495419</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.1365386484211643</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1177591899048343</v>
+        <v>0.1346094498842132</v>
       </c>
       <c r="C22">
-        <v>0.1307256168610167</v>
+        <v>0.1505961104401247</v>
       </c>
       <c r="D22">
-        <v>0.1362696622506132</v>
+        <v>0.1532062007476381</v>
       </c>
       <c r="E22">
-        <v>0.1272112310201353</v>
+        <v>0.1426640288366997</v>
       </c>
       <c r="F22">
-        <v>0.1002979304747468</v>
+        <v>0.1127610558425501</v>
       </c>
       <c r="G22">
-        <v>0.126203751711486</v>
+        <v>0.1525245814076649</v>
       </c>
       <c r="H22">
-        <v>0.1387944284385829</v>
-      </c>
-      <c r="I22">
-        <v>0.122738189338585</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.1536385728411093</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1158498422413187</v>
+        <v>0.1313081667859143</v>
       </c>
       <c r="C23">
-        <v>0.1063191798245898</v>
+        <v>0.1210055521573563</v>
       </c>
       <c r="D23">
-        <v>0.1117347979286163</v>
+        <v>0.1259652328289177</v>
       </c>
       <c r="E23">
-        <v>0.138493306820016</v>
+        <v>0.1525904042854623</v>
       </c>
       <c r="F23">
-        <v>0.1395496570752829</v>
+        <v>0.1531825247566188</v>
       </c>
       <c r="G23">
-        <v>0.1726509647682266</v>
+        <v>0.1929646306527017</v>
       </c>
       <c r="H23">
-        <v>0.1073715901994584</v>
-      </c>
-      <c r="I23">
-        <v>0.1080306611424911</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.122983488533029</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.141255619377744</v>
+        <v>0.1561350766835863</v>
       </c>
       <c r="C24">
-        <v>0.1035481596150165</v>
+        <v>0.1161833958025833</v>
       </c>
       <c r="D24">
-        <v>0.1250505175589688</v>
+        <v>0.1384415671640282</v>
       </c>
       <c r="E24">
-        <v>0.1215119102941798</v>
+        <v>0.1359616986297219</v>
       </c>
       <c r="F24">
-        <v>0.1554804928232655</v>
+        <v>0.179316440825403</v>
       </c>
       <c r="G24">
-        <v>0.132891159713772</v>
+        <v>0.1416069771249063</v>
       </c>
       <c r="H24">
-        <v>0.1158954957078187</v>
-      </c>
-      <c r="I24">
-        <v>0.1043666449092347</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.1323548437697712</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1150011609814555</v>
+        <v>0.1301727160915923</v>
       </c>
       <c r="C25">
-        <v>0.1155762800230882</v>
+        <v>0.130936970163087</v>
       </c>
       <c r="D25">
-        <v>0.1370511698963527</v>
+        <v>0.1520673286454794</v>
       </c>
       <c r="E25">
-        <v>0.115589818190706</v>
+        <v>0.1262286656401589</v>
       </c>
       <c r="F25">
-        <v>0.1721519550632213</v>
+        <v>0.1874575136218377</v>
       </c>
       <c r="G25">
-        <v>0.1293285067611711</v>
+        <v>0.1468987853071039</v>
       </c>
       <c r="H25">
-        <v>0.1121525812398437</v>
-      </c>
-      <c r="I25">
-        <v>0.1031485278441615</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.1262380205307408</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.1094441108250813</v>
+        <v>0.1258648241811805</v>
       </c>
       <c r="C26">
-        <v>0.09652803375697262</v>
+        <v>0.1010461754010466</v>
       </c>
       <c r="D26">
-        <v>0.08238586149781381</v>
+        <v>0.09006366780232639</v>
       </c>
       <c r="E26">
-        <v>0.08695338113171734</v>
+        <v>0.09270964145658356</v>
       </c>
       <c r="F26">
-        <v>0.3215808933872661</v>
+        <v>0.3678999617722176</v>
       </c>
       <c r="G26">
-        <v>0.1213008003446568</v>
+        <v>0.1363468513978395</v>
       </c>
       <c r="H26">
-        <v>0.07330188065088</v>
-      </c>
-      <c r="I26">
-        <v>0.108505038405612</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>0.08606887798880589</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.1279981905312643</v>
+        <v>0.1472407160211785</v>
       </c>
       <c r="C27">
-        <v>0.141159617938574</v>
+        <v>0.1630936855887496</v>
       </c>
       <c r="D27">
-        <v>0.09543794725720679</v>
+        <v>0.1097407437692811</v>
       </c>
       <c r="E27">
-        <v>0.0869978848696852</v>
+        <v>0.09874132198577842</v>
       </c>
       <c r="F27">
-        <v>0.1332924479943615</v>
+        <v>0.1576650921491089</v>
       </c>
       <c r="G27">
-        <v>0.140058670988539</v>
+        <v>0.1625079218124422</v>
       </c>
       <c r="H27">
-        <v>0.1400318465349506</v>
-      </c>
-      <c r="I27">
-        <v>0.1350233938854185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>0.1610105186734613</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.1385118208425761</v>
+        <v>0.1540147594418098</v>
       </c>
       <c r="C28">
-        <v>0.1069213053212355</v>
+        <v>0.1224988488748983</v>
       </c>
       <c r="D28">
-        <v>0.126361687848957</v>
+        <v>0.1419362123946148</v>
       </c>
       <c r="E28">
-        <v>0.1257114135385161</v>
+        <v>0.1397406853786961</v>
       </c>
       <c r="F28">
-        <v>0.1646252960190487</v>
+        <v>0.1842814788716998</v>
       </c>
       <c r="G28">
-        <v>0.1032905543067772</v>
+        <v>0.1257923353375687</v>
       </c>
       <c r="H28">
-        <v>0.1174058146531776</v>
-      </c>
-      <c r="I28">
-        <v>0.1171721074697117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.1317356797007125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.1334340318925474</v>
+        <v>0.1498902634078537</v>
       </c>
       <c r="C29">
-        <v>0.09677756740357889</v>
+        <v>0.1108164910574175</v>
       </c>
       <c r="D29">
-        <v>0.1333516551061432</v>
+        <v>0.1472561844208922</v>
       </c>
       <c r="E29">
-        <v>0.1225188485271929</v>
+        <v>0.1350685964900681</v>
       </c>
       <c r="F29">
-        <v>0.1934660364581373</v>
+        <v>0.2018976132047695</v>
       </c>
       <c r="G29">
-        <v>0.1061384621602029</v>
+        <v>0.1252729528669626</v>
       </c>
       <c r="H29">
-        <v>0.1139287116337734</v>
-      </c>
-      <c r="I29">
-        <v>0.1003846868184239</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.1297978985520366</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.1184149431252387</v>
+        <v>0.1331358042491339</v>
       </c>
       <c r="C30">
-        <v>0.1162641143319578</v>
+        <v>0.1319739498550676</v>
       </c>
       <c r="D30">
-        <v>0.1431659697631991</v>
+        <v>0.161117074624345</v>
       </c>
       <c r="E30">
-        <v>0.1388937672339963</v>
+        <v>0.1562593417810739</v>
       </c>
       <c r="F30">
-        <v>0.1183902846743473</v>
+        <v>0.1334688895979049</v>
       </c>
       <c r="G30">
-        <v>0.1395268387683789</v>
+        <v>0.1546577323785656</v>
       </c>
       <c r="H30">
-        <v>0.1138744978939057</v>
-      </c>
-      <c r="I30">
-        <v>0.1114695842089763</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.1293872075139091</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.1420772130578479</v>
+        <v>0.1551927902562706</v>
       </c>
       <c r="C31">
-        <v>0.1010769063986243</v>
+        <v>0.1118955274849931</v>
       </c>
       <c r="D31">
-        <v>0.09141840159577601</v>
+        <v>0.09476246085777724</v>
       </c>
       <c r="E31">
-        <v>0.09629655236602558</v>
+        <v>0.1015463079102945</v>
       </c>
       <c r="F31">
-        <v>0.2831289663334196</v>
+        <v>0.3182234648623586</v>
       </c>
       <c r="G31">
-        <v>0.103310076268566</v>
+        <v>0.1174777677627098</v>
       </c>
       <c r="H31">
-        <v>0.09218279631514598</v>
-      </c>
-      <c r="I31">
-        <v>0.09050908766459469</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.1009016808655962</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.123184143651957</v>
+        <v>0.1433267672209217</v>
       </c>
       <c r="C32">
-        <v>0.1290992244573087</v>
+        <v>0.1440701911880507</v>
       </c>
       <c r="D32">
-        <v>0.1309710069069523</v>
+        <v>0.1481781430188828</v>
       </c>
       <c r="E32">
-        <v>0.1173398894448864</v>
+        <v>0.1319690876959244</v>
       </c>
       <c r="F32">
-        <v>0.1307343376992042</v>
+        <v>0.1528244574330525</v>
       </c>
       <c r="G32">
-        <v>0.1098001602545245</v>
+        <v>0.1282095283880268</v>
       </c>
       <c r="H32">
-        <v>0.1340305787404711</v>
-      </c>
-      <c r="I32">
-        <v>0.1248406588446957</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.1514218250551412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.1219969320004858</v>
+        <v>0.1353552557699702</v>
       </c>
       <c r="C33">
-        <v>0.1238413627734568</v>
+        <v>0.1439726512211344</v>
       </c>
       <c r="D33">
-        <v>0.126424796630006</v>
+        <v>0.1404475220296691</v>
       </c>
       <c r="E33">
-        <v>0.1161981726863961</v>
+        <v>0.1282753075471254</v>
       </c>
       <c r="F33">
-        <v>0.1256351658408293</v>
+        <v>0.1410035275031865</v>
       </c>
       <c r="G33">
-        <v>0.138832732533759</v>
+        <v>0.1619301243692211</v>
       </c>
       <c r="H33">
-        <v>0.1288242101268718</v>
-      </c>
-      <c r="I33">
-        <v>0.1182466274081952</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.1490156115596935</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.1251538944308558</v>
+        <v>0.1420008151311197</v>
       </c>
       <c r="C34">
-        <v>0.1221079960511395</v>
+        <v>0.1393167795529556</v>
       </c>
       <c r="D34">
-        <v>0.1261407811519902</v>
+        <v>0.1424670667040721</v>
       </c>
       <c r="E34">
-        <v>0.1231195008871856</v>
+        <v>0.1364229225560734</v>
       </c>
       <c r="F34">
-        <v>0.1249459652748703</v>
+        <v>0.1416530571448432</v>
       </c>
       <c r="G34">
-        <v>0.138372345276343</v>
+        <v>0.1603981119264808</v>
       </c>
       <c r="H34">
-        <v>0.1187158137386504</v>
-      </c>
-      <c r="I34">
-        <v>0.1214437031889653</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.1377412469844551</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.1046363468705482</v>
+        <v>0.1177714623182253</v>
       </c>
       <c r="C35">
-        <v>0.1285780851566909</v>
+        <v>0.1478320648228476</v>
       </c>
       <c r="D35">
-        <v>0.1074895840072579</v>
+        <v>0.1171998335479654</v>
       </c>
       <c r="E35">
-        <v>0.1016666959144305</v>
+        <v>0.1105720185380132</v>
       </c>
       <c r="F35">
-        <v>0.1102238971081173</v>
+        <v>0.1264561992507312</v>
       </c>
       <c r="G35">
-        <v>0.1799250462787501</v>
+        <v>0.2073584888241729</v>
       </c>
       <c r="H35">
-        <v>0.1461238165981308</v>
-      </c>
-      <c r="I35">
-        <v>0.1213565280660741</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.1728099326980443</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.1077280482196517</v>
+        <v>0.1211392251416913</v>
       </c>
       <c r="C36">
-        <v>0.1447801495613687</v>
+        <v>0.1695147927742081</v>
       </c>
       <c r="D36">
-        <v>0.1064769940771994</v>
+        <v>0.1146180114278849</v>
       </c>
       <c r="E36">
-        <v>0.1000685761354971</v>
+        <v>0.1073810395161714</v>
       </c>
       <c r="F36">
-        <v>0.1182737091333724</v>
+        <v>0.1373562421135788</v>
       </c>
       <c r="G36">
-        <v>0.1675607048644987</v>
+        <v>0.196423985485644</v>
       </c>
       <c r="H36">
-        <v>0.132556443556127</v>
-      </c>
-      <c r="I36">
-        <v>0.122555374452285</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.1535667035408216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.1161558018555877</v>
+        <v>0.1301315347878965</v>
       </c>
       <c r="C37">
-        <v>0.1278572310893006</v>
+        <v>0.146236768170754</v>
       </c>
       <c r="D37">
-        <v>0.1196208260623834</v>
+        <v>0.1327056238862931</v>
       </c>
       <c r="E37">
-        <v>0.1208044419504405</v>
+        <v>0.1347699025091393</v>
       </c>
       <c r="F37">
-        <v>0.1165996792180149</v>
+        <v>0.1328449446055219</v>
       </c>
       <c r="G37">
-        <v>0.1536760005049229</v>
+        <v>0.171347739870564</v>
       </c>
       <c r="H37">
-        <v>0.1353534166681245</v>
-      </c>
-      <c r="I37">
-        <v>0.1099326026512254</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>0.1519634861698312</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.1197014413489373</v>
+        <v>0.1342838760473474</v>
       </c>
       <c r="C38">
-        <v>0.1138668770045608</v>
+        <v>0.1273193138128082</v>
       </c>
       <c r="D38">
-        <v>0.1304760365888149</v>
+        <v>0.1490568229490568</v>
       </c>
       <c r="E38">
-        <v>0.1257457060243884</v>
+        <v>0.14452638418074</v>
       </c>
       <c r="F38">
-        <v>0.1569105527846071</v>
+        <v>0.1670416676396124</v>
       </c>
       <c r="G38">
-        <v>0.1496162531449645</v>
+        <v>0.1668935502690602</v>
       </c>
       <c r="H38">
-        <v>0.0974494608833243</v>
-      </c>
-      <c r="I38">
-        <v>0.1062336722204026</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.110878385101375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.1209920652319257</v>
+        <v>0.1377716201777021</v>
       </c>
       <c r="C39">
-        <v>0.119644371821483</v>
+        <v>0.1358581438340887</v>
       </c>
       <c r="D39">
-        <v>0.1315136274465576</v>
+        <v>0.1508920128646124</v>
       </c>
       <c r="E39">
-        <v>0.1257899132178184</v>
+        <v>0.1442480349981571</v>
       </c>
       <c r="F39">
-        <v>0.1508299452222508</v>
+        <v>0.1605455744531273</v>
       </c>
       <c r="G39">
-        <v>0.1328332845749666</v>
+        <v>0.1461633390552285</v>
       </c>
       <c r="H39">
-        <v>0.1087033124963139</v>
-      </c>
-      <c r="I39">
-        <v>0.1096934799886837</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.1245212746170838</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.1392686632271748</v>
+        <v>0.155552744097001</v>
       </c>
       <c r="C40">
-        <v>0.1147073206509541</v>
+        <v>0.1318791720919552</v>
       </c>
       <c r="D40">
-        <v>0.1179616947472186</v>
+        <v>0.1295196003898998</v>
       </c>
       <c r="E40">
-        <v>0.1021352763149882</v>
+        <v>0.1090383412917741</v>
       </c>
       <c r="F40">
-        <v>0.1765147826290466</v>
+        <v>0.2027246431039978</v>
       </c>
       <c r="G40">
-        <v>0.1486943819333062</v>
+        <v>0.1686459122735996</v>
       </c>
       <c r="H40">
-        <v>0.0914930814879077</v>
-      </c>
-      <c r="I40">
-        <v>0.109224799009404</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>0.1026395867517724</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.1428960473859064</v>
+        <v>0.1616468021698393</v>
       </c>
       <c r="C41">
-        <v>0.1149443943117474</v>
+        <v>0.1326426814996892</v>
       </c>
       <c r="D41">
-        <v>0.1148454746493994</v>
+        <v>0.127505993993514</v>
       </c>
       <c r="E41">
-        <v>0.113046430103541</v>
+        <v>0.1293915809507636</v>
       </c>
       <c r="F41">
-        <v>0.1681238187669489</v>
+        <v>0.1892718618418187</v>
       </c>
       <c r="G41">
-        <v>0.1286726427554951</v>
+        <v>0.1381202128969058</v>
       </c>
       <c r="H41">
-        <v>0.106917819119</v>
-      </c>
-      <c r="I41">
-        <v>0.1105533729079618</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.1214208666474693</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.1268457838068458</v>
+        <v>0.1432389206723299</v>
       </c>
       <c r="C42">
-        <v>0.1119604076889747</v>
+        <v>0.1257110116654673</v>
       </c>
       <c r="D42">
-        <v>0.1320680986361262</v>
+        <v>0.1475266591171602</v>
       </c>
       <c r="E42">
-        <v>0.1097719352762832</v>
+        <v>0.1207484438979139</v>
       </c>
       <c r="F42">
-        <v>0.1647250999533015</v>
+        <v>0.1799710318627232</v>
       </c>
       <c r="G42">
-        <v>0.1588882642575422</v>
+        <v>0.1783454891160284</v>
       </c>
       <c r="H42">
-        <v>0.09635692817177409</v>
-      </c>
-      <c r="I42">
-        <v>0.09938348220915234</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>0.104458443668377</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.1224069495940368</v>
+        <v>0.1356241449375551</v>
       </c>
       <c r="C43">
-        <v>0.1275603348662248</v>
+        <v>0.1463704528646326</v>
       </c>
       <c r="D43">
-        <v>0.1193993715947518</v>
+        <v>0.1343441501678814</v>
       </c>
       <c r="E43">
-        <v>0.1146177853620875</v>
+        <v>0.1299258487533089</v>
       </c>
       <c r="F43">
-        <v>0.1500979219840503</v>
+        <v>0.1663796812395744</v>
       </c>
       <c r="G43">
-        <v>0.109510896456678</v>
+        <v>0.1224642104837099</v>
       </c>
       <c r="H43">
-        <v>0.1480440646419094</v>
-      </c>
-      <c r="I43">
-        <v>0.1083626755002615</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.1648915115533378</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.1176353943154713</v>
+        <v>0.1318868058531852</v>
       </c>
       <c r="C44">
-        <v>0.1227973991950293</v>
+        <v>0.1399354302478985</v>
       </c>
       <c r="D44">
-        <v>0.1372932735849509</v>
+        <v>0.1551144814680183</v>
       </c>
       <c r="E44">
-        <v>0.1357300323559691</v>
+        <v>0.1506107446613567</v>
       </c>
       <c r="F44">
-        <v>0.1102230726715901</v>
+        <v>0.1256061336409851</v>
       </c>
       <c r="G44">
-        <v>0.1321566536211722</v>
+        <v>0.151189267703556</v>
       </c>
       <c r="H44">
-        <v>0.1273290504434092</v>
-      </c>
-      <c r="I44">
-        <v>0.1168351238124081</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.145657136425</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.1232374504589173</v>
+        <v>0.1422181263427039</v>
       </c>
       <c r="C45">
-        <v>0.127242196539636</v>
+        <v>0.1469945316863816</v>
       </c>
       <c r="D45">
-        <v>0.1272436980465317</v>
+        <v>0.1457976432273736</v>
       </c>
       <c r="E45">
-        <v>0.1232545064268746</v>
+        <v>0.1402662419134523</v>
       </c>
       <c r="F45">
-        <v>0.1203361356478145</v>
+        <v>0.1328183493305981</v>
       </c>
       <c r="G45">
-        <v>0.1196084439413443</v>
+        <v>0.1379420383585805</v>
       </c>
       <c r="H45">
-        <v>0.1389957781789734</v>
-      </c>
-      <c r="I45">
-        <v>0.1200817907599082</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>0.1539630691409098</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.1156742525383447</v>
+        <v>0.1279489275847696</v>
       </c>
       <c r="C46">
-        <v>0.1238278936817499</v>
+        <v>0.1400664813686482</v>
       </c>
       <c r="D46">
-        <v>0.1361221240019576</v>
+        <v>0.1506859234529978</v>
       </c>
       <c r="E46">
-        <v>0.1265863010667578</v>
+        <v>0.1413710622973315</v>
       </c>
       <c r="F46">
-        <v>0.1034630050729644</v>
+        <v>0.1163155479559732</v>
       </c>
       <c r="G46">
-        <v>0.1553057198604874</v>
+        <v>0.1758761403774804</v>
       </c>
       <c r="H46">
-        <v>0.1277252659711126</v>
-      </c>
-      <c r="I46">
-        <v>0.1112954378066256</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.1477359169627991</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.1244711598938585</v>
+        <v>0.1401517356340499</v>
       </c>
       <c r="C47">
-        <v>0.1235053092317823</v>
+        <v>0.1388119680856491</v>
       </c>
       <c r="D47">
-        <v>0.132617802291696</v>
+        <v>0.150672767632487</v>
       </c>
       <c r="E47">
-        <v>0.1294571033198199</v>
+        <v>0.144416582324404</v>
       </c>
       <c r="F47">
-        <v>0.10623730079498</v>
+        <v>0.1198877816105569</v>
       </c>
       <c r="G47">
-        <v>0.1433237324959564</v>
+        <v>0.1661254117833429</v>
       </c>
       <c r="H47">
-        <v>0.1203048438701316</v>
-      </c>
-      <c r="I47">
-        <v>0.1200827481017753</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.1399337529295101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.1226046433900459</v>
+        <v>0.1388529920041361</v>
       </c>
       <c r="C48">
-        <v>0.1289113093096996</v>
+        <v>0.1449136863239698</v>
       </c>
       <c r="D48">
-        <v>0.1366071217392263</v>
+        <v>0.1553319087562629</v>
       </c>
       <c r="E48">
-        <v>0.1287258035121596</v>
+        <v>0.1487688892919839</v>
       </c>
       <c r="F48">
-        <v>0.1136630987451541</v>
+        <v>0.1301558644599557</v>
       </c>
       <c r="G48">
-        <v>0.1317914097637998</v>
+        <v>0.1512585583040973</v>
       </c>
       <c r="H48">
-        <v>0.1130895186762354</v>
-      </c>
-      <c r="I48">
-        <v>0.1246070948636793</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.1307181008595941</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.116662288198094</v>
+        <v>0.1341732651276116</v>
       </c>
       <c r="C49">
-        <v>0.1704040645784897</v>
+        <v>0.1953726222839642</v>
       </c>
       <c r="D49">
-        <v>0.06529437066880323</v>
+        <v>0.07311220484657503</v>
       </c>
       <c r="E49">
-        <v>0.08355750407355678</v>
+        <v>0.09664081090450502</v>
       </c>
       <c r="F49">
-        <v>0.09701289714382552</v>
+        <v>0.1107626516838724</v>
       </c>
       <c r="G49">
-        <v>0.181744517756439</v>
+        <v>0.2044455165460817</v>
       </c>
       <c r="H49">
-        <v>0.1592359295829224</v>
-      </c>
-      <c r="I49">
-        <v>0.1260884279978695</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.1854929286073901</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.1392838906465883</v>
+        <v>0.1478608440248066</v>
       </c>
       <c r="C50">
-        <v>0.08561426181785282</v>
+        <v>0.09192374989818905</v>
       </c>
       <c r="D50">
-        <v>0.1018143011141209</v>
+        <v>0.1070266398092284</v>
       </c>
       <c r="E50">
-        <v>0.09431194576761998</v>
+        <v>0.09852117872478744</v>
       </c>
       <c r="F50">
-        <v>0.3073098106366783</v>
+        <v>0.341255991844049</v>
       </c>
       <c r="G50">
-        <v>0.1120564046081264</v>
+        <v>0.1264835740390994</v>
       </c>
       <c r="H50">
-        <v>0.0778971692775523</v>
-      </c>
-      <c r="I50">
-        <v>0.0817122161314611</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>0.08692802165984011</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.1175829746958465</v>
+        <v>0.1226115077550534</v>
       </c>
       <c r="C51">
-        <v>0.08261736779689485</v>
+        <v>0.09440974265373343</v>
       </c>
       <c r="D51">
-        <v>0.09081475748104204</v>
+        <v>0.09739515792981021</v>
       </c>
       <c r="E51">
-        <v>0.08816311384151033</v>
+        <v>0.08662995333926601</v>
       </c>
       <c r="F51">
-        <v>0.3259254830290892</v>
+        <v>0.3610107336570388</v>
       </c>
       <c r="G51">
-        <v>0.1432824840498655</v>
+        <v>0.1562181015575908</v>
       </c>
       <c r="H51">
-        <v>0.07519766261330044</v>
-      </c>
-      <c r="I51">
-        <v>0.07641615649245123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.08172480310750725</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.1594531656868016</v>
+        <v>0.1768509831301497</v>
       </c>
       <c r="C52">
-        <v>0.1441223637609049</v>
+        <v>0.1606137629377495</v>
       </c>
       <c r="D52">
-        <v>0.09308977666483492</v>
+        <v>0.104377137541608</v>
       </c>
       <c r="E52">
-        <v>0.09865434662587209</v>
+        <v>0.1098816725454235</v>
       </c>
       <c r="F52">
-        <v>0.1587639495877745</v>
+        <v>0.1730920359279295</v>
       </c>
       <c r="G52">
-        <v>0.1609099266946733</v>
+        <v>0.1769153970016285</v>
       </c>
       <c r="H52">
-        <v>0.09052497241499177</v>
-      </c>
-      <c r="I52">
-        <v>0.09448149856414677</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>0.0982690109155113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.1297041738563252</v>
+        <v>0.1392977410452609</v>
       </c>
       <c r="C53">
-        <v>0.09493902046643578</v>
+        <v>0.1049981000730316</v>
       </c>
       <c r="D53">
-        <v>0.0934294571465978</v>
+        <v>0.1000806418317456</v>
       </c>
       <c r="E53">
-        <v>0.08760301939501347</v>
+        <v>0.1008822404201073</v>
       </c>
       <c r="F53">
-        <v>0.2991216969063737</v>
+        <v>0.3372516011427176</v>
       </c>
       <c r="G53">
-        <v>0.1197258307967842</v>
+        <v>0.1239023918307928</v>
       </c>
       <c r="H53">
-        <v>0.08359231078857868</v>
-      </c>
-      <c r="I53">
-        <v>0.09188449064389113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.09358728365634435</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.1391857452509605</v>
+        <v>0.1551003251087035</v>
       </c>
       <c r="C54">
-        <v>0.1176592680477597</v>
+        <v>0.1347122827121459</v>
       </c>
       <c r="D54">
-        <v>0.1307074179713376</v>
+        <v>0.1496249820783145</v>
       </c>
       <c r="E54">
-        <v>0.133859464672371</v>
+        <v>0.1544207514711709</v>
       </c>
       <c r="F54">
-        <v>0.1247682550074741</v>
+        <v>0.1386856639856338</v>
       </c>
       <c r="G54">
-        <v>0.1415308876362741</v>
+        <v>0.1520311624224166</v>
       </c>
       <c r="H54">
-        <v>0.102283779557825</v>
-      </c>
-      <c r="I54">
-        <v>0.1100051818559981</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.1154248322216148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.1456196662697039</v>
+        <v>0.1624806992490529</v>
       </c>
       <c r="C55">
-        <v>0.1261934950842962</v>
+        <v>0.1448076269592741</v>
       </c>
       <c r="D55">
-        <v>0.119942592380796</v>
+        <v>0.1370618476621536</v>
       </c>
       <c r="E55">
-        <v>0.118416332349591</v>
+        <v>0.1346348466088051</v>
       </c>
       <c r="F55">
-        <v>0.1288620298614856</v>
+        <v>0.1429802135976553</v>
       </c>
       <c r="G55">
-        <v>0.142209560644571</v>
+        <v>0.1595836611764433</v>
       </c>
       <c r="H55">
-        <v>0.1046349145619007</v>
-      </c>
-      <c r="I55">
-        <v>0.1141214088476556</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.1184511047466156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.1302018778641973</v>
+        <v>0.144819694283093</v>
       </c>
       <c r="C56">
-        <v>0.1023088193545938</v>
+        <v>0.1165654930151336</v>
       </c>
       <c r="D56">
-        <v>0.1204135922368186</v>
+        <v>0.1340060623444808</v>
       </c>
       <c r="E56">
-        <v>0.1195396869666002</v>
+        <v>0.131876687970326</v>
       </c>
       <c r="F56">
-        <v>0.2015888731410178</v>
+        <v>0.2307252342223485</v>
       </c>
       <c r="G56">
-        <v>0.1201149971044418</v>
+        <v>0.1359185159288341</v>
       </c>
       <c r="H56">
-        <v>0.09474019587033969</v>
-      </c>
-      <c r="I56">
-        <v>0.1110919574619907</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0.106088312235784</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.1236874352014375</v>
+        <v>0.1419605496071546</v>
       </c>
       <c r="C57">
-        <v>0.120581066667498</v>
+        <v>0.135481012738007</v>
       </c>
       <c r="D57">
-        <v>0.1287832988318962</v>
+        <v>0.1445433507155126</v>
       </c>
       <c r="E57">
-        <v>0.1159501010164671</v>
+        <v>0.1288374554002922</v>
       </c>
       <c r="F57">
-        <v>0.1403049899933217</v>
+        <v>0.1570818022729027</v>
       </c>
       <c r="G57">
-        <v>0.1414654442583312</v>
+        <v>0.15648482930717</v>
       </c>
       <c r="H57">
-        <v>0.1187521086632691</v>
-      </c>
-      <c r="I57">
-        <v>0.1104755553677792</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>0.1356109999589609</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.1175714074896252</v>
+        <v>0.135225154232984</v>
       </c>
       <c r="C58">
-        <v>0.119067424838645</v>
+        <v>0.1325575681108975</v>
       </c>
       <c r="D58">
-        <v>0.1298988933711435</v>
+        <v>0.144914066325882</v>
       </c>
       <c r="E58">
-        <v>0.1177727028911305</v>
+        <v>0.131127603517053</v>
       </c>
       <c r="F58">
-        <v>0.1531049431617433</v>
+        <v>0.1703690339807601</v>
       </c>
       <c r="G58">
-        <v>0.1381710349726019</v>
+        <v>0.1531339680849885</v>
       </c>
       <c r="H58">
-        <v>0.1172055971013983</v>
-      </c>
-      <c r="I58">
-        <v>0.1072079961737124</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>0.1326726057474348</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.1314978478908211</v>
+        <v>0.1458226824559124</v>
       </c>
       <c r="C59">
-        <v>0.101613645833902</v>
+        <v>0.1153191665640782</v>
       </c>
       <c r="D59">
-        <v>0.1370850262304434</v>
+        <v>0.1535940982012049</v>
       </c>
       <c r="E59">
-        <v>0.1302308491755655</v>
+        <v>0.1458687879921334</v>
       </c>
       <c r="F59">
-        <v>0.1904024902141186</v>
+        <v>0.2205868571177396</v>
       </c>
       <c r="G59">
-        <v>0.09558403611584088</v>
+        <v>0.1053566791186252</v>
       </c>
       <c r="H59">
-        <v>0.1026751141721618</v>
-      </c>
-      <c r="I59">
-        <v>0.1109109903671468</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.1134517285503061</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.1241323146389478</v>
+        <v>0.1379520638393401</v>
       </c>
       <c r="C60">
-        <v>0.1027015825463853</v>
+        <v>0.1138079414676185</v>
       </c>
       <c r="D60">
-        <v>0.1393726782840993</v>
+        <v>0.1556382549920822</v>
       </c>
       <c r="E60">
-        <v>0.1302030113772008</v>
+        <v>0.145116589049894</v>
       </c>
       <c r="F60">
-        <v>0.1858690751934792</v>
+        <v>0.214806530100466</v>
       </c>
       <c r="G60">
-        <v>0.1051895403989421</v>
+        <v>0.1123369633461147</v>
       </c>
       <c r="H60">
-        <v>0.1090873811097876</v>
-      </c>
-      <c r="I60">
-        <v>0.103444416451158</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>0.1203416572044845</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.1410069120734489</v>
+        <v>0.1656884876118723</v>
       </c>
       <c r="C61">
-        <v>0.1527565719959637</v>
+        <v>0.1765759619775163</v>
       </c>
       <c r="D61">
-        <v>0.08119659753671579</v>
+        <v>0.09568310406769302</v>
       </c>
       <c r="E61">
-        <v>0.1214386288320832</v>
+        <v>0.1458169407485564</v>
       </c>
       <c r="F61">
-        <v>0.07920439529636396</v>
+        <v>0.08558040206976801</v>
       </c>
       <c r="G61">
-        <v>0.1371993164189006</v>
+        <v>0.1581003964256464</v>
       </c>
       <c r="H61">
-        <v>0.1480189257527557</v>
-      </c>
-      <c r="I61">
-        <v>0.1391786520937682</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>0.1725547070989475</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.1137632122213261</v>
+        <v>0.1295726981139359</v>
       </c>
       <c r="C62">
-        <v>0.1280509318312168</v>
+        <v>0.1425126669400022</v>
       </c>
       <c r="D62">
-        <v>0.1338389660395844</v>
+        <v>0.1521256867531274</v>
       </c>
       <c r="E62">
-        <v>0.1394016013798754</v>
+        <v>0.1557667674810447</v>
       </c>
       <c r="F62">
-        <v>0.1033535662309071</v>
+        <v>0.1201405434074344</v>
       </c>
       <c r="G62">
-        <v>0.1376316930715228</v>
+        <v>0.1527721651727208</v>
       </c>
       <c r="H62">
-        <v>0.1290029822408518</v>
-      </c>
-      <c r="I62">
-        <v>0.1149570469847158</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0.1471094721317346</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.127597608228828</v>
+        <v>0.1430324510038329</v>
       </c>
       <c r="C63">
-        <v>0.1223792370025924</v>
+        <v>0.1389093107689777</v>
       </c>
       <c r="D63">
-        <v>0.1385830363427305</v>
+        <v>0.1562716450513123</v>
       </c>
       <c r="E63">
-        <v>0.1291861079090563</v>
+        <v>0.1452727582200329</v>
       </c>
       <c r="F63">
-        <v>0.1142966864616785</v>
+        <v>0.1360404667869064</v>
       </c>
       <c r="G63">
-        <v>0.127687643111453</v>
+        <v>0.1395360626910309</v>
       </c>
       <c r="H63">
-        <v>0.1246184227872446</v>
-      </c>
-      <c r="I63">
-        <v>0.1156512581564167</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>0.1409373054779069</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.1189426330976973</v>
+        <v>0.1341625420303517</v>
       </c>
       <c r="C64">
-        <v>0.119758087986999</v>
+        <v>0.1361445322656442</v>
       </c>
       <c r="D64">
-        <v>0.1408782376802764</v>
+        <v>0.1586687172094511</v>
       </c>
       <c r="E64">
-        <v>0.131313898688783</v>
+        <v>0.1486072543808882</v>
       </c>
       <c r="F64">
-        <v>0.102337798034043</v>
+        <v>0.1193126171219747</v>
       </c>
       <c r="G64">
-        <v>0.1353331955322905</v>
+        <v>0.1553532189556434</v>
       </c>
       <c r="H64">
-        <v>0.1300520667763087</v>
-      </c>
-      <c r="I64">
-        <v>0.1213840822036021</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.1477511180360465</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.121749877373865</v>
+        <v>0.1334279272858652</v>
       </c>
       <c r="C65">
-        <v>0.1366942487453024</v>
+        <v>0.1503853595001762</v>
       </c>
       <c r="D65">
-        <v>0.1039928142850665</v>
+        <v>0.1161944667656433</v>
       </c>
       <c r="E65">
-        <v>0.1128913907147126</v>
+        <v>0.1273834516416303</v>
       </c>
       <c r="F65">
-        <v>0.1163676706244851</v>
+        <v>0.1252964646809451</v>
       </c>
       <c r="G65">
-        <v>0.1975083099036737</v>
+        <v>0.2227731518392552</v>
       </c>
       <c r="H65">
-        <v>0.1108741623980079</v>
-      </c>
-      <c r="I65">
-        <v>0.09992152595488667</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.1245391782864847</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.1050400924582265</v>
+        <v>0.1164147149208038</v>
       </c>
       <c r="C66">
-        <v>0.1296913641341633</v>
+        <v>0.1446161515638651</v>
       </c>
       <c r="D66">
-        <v>0.1197011661721048</v>
+        <v>0.1375631048331857</v>
       </c>
       <c r="E66">
-        <v>0.09572683995244304</v>
+        <v>0.1090973780197271</v>
       </c>
       <c r="F66">
-        <v>0.1090878725138912</v>
+        <v>0.1230683211369146</v>
       </c>
       <c r="G66">
-        <v>0.2020091187609803</v>
+        <v>0.2274154626602491</v>
       </c>
       <c r="H66">
-        <v>0.1287661770997164</v>
-      </c>
-      <c r="I66">
-        <v>0.1099773689084745</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>0.1418248668652547</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.1161116974143754</v>
+        <v>0.1306114511105851</v>
       </c>
       <c r="C67">
-        <v>0.1395116627200006</v>
+        <v>0.158305483497213</v>
       </c>
       <c r="D67">
-        <v>0.1395650680574353</v>
+        <v>0.155810503368442</v>
       </c>
       <c r="E67">
-        <v>0.1319456525419703</v>
+        <v>0.149674674462007</v>
       </c>
       <c r="F67">
-        <v>0.1139949853264436</v>
+        <v>0.1272966974916982</v>
       </c>
       <c r="G67">
-        <v>0.1173471651693711</v>
+        <v>0.1364531593905651</v>
       </c>
       <c r="H67">
-        <v>0.1237339486283145</v>
-      </c>
-      <c r="I67">
-        <v>0.1177898201420891</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>0.1418480306794895</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.1258803238616391</v>
+        <v>0.1431863187858895</v>
       </c>
       <c r="C68">
-        <v>0.1266081106335561</v>
+        <v>0.1461290315544422</v>
       </c>
       <c r="D68">
-        <v>0.1418358438341712</v>
+        <v>0.1627636750366468</v>
       </c>
       <c r="E68">
-        <v>0.1332062625385702</v>
+        <v>0.1530281031631483</v>
       </c>
       <c r="F68">
-        <v>0.1177836379781861</v>
+        <v>0.1360537391993392</v>
       </c>
       <c r="G68">
-        <v>0.09864415191527813</v>
+        <v>0.1121310144241778</v>
       </c>
       <c r="H68">
-        <v>0.1295491442114476</v>
-      </c>
-      <c r="I68">
-        <v>0.1264925250271516</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.1467081178363563</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.1261848393004747</v>
+        <v>0.1450860578804804</v>
       </c>
       <c r="C69">
-        <v>0.1270577512950324</v>
+        <v>0.1457490664081669</v>
       </c>
       <c r="D69">
-        <v>0.1387843571315128</v>
+        <v>0.1601926646417254</v>
       </c>
       <c r="E69">
-        <v>0.1323119552411476</v>
+        <v>0.1525658934575375</v>
       </c>
       <c r="F69">
-        <v>0.1218605585824407</v>
+        <v>0.1424477903737812</v>
       </c>
       <c r="G69">
-        <v>0.1063304915104593</v>
+        <v>0.1206415876197305</v>
       </c>
       <c r="H69">
-        <v>0.1191471940619566</v>
-      </c>
-      <c r="I69">
-        <v>0.1283228528769758</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.133316939618578</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.119332168302317</v>
+        <v>0.1387552883289802</v>
       </c>
       <c r="C70">
-        <v>0.1200638785969782</v>
+        <v>0.1379177520641831</v>
       </c>
       <c r="D70">
-        <v>0.1310508288814913</v>
+        <v>0.1469836477867491</v>
       </c>
       <c r="E70">
-        <v>0.117385562567358</v>
+        <v>0.130617897652779</v>
       </c>
       <c r="F70">
-        <v>0.1183832794058553</v>
+        <v>0.1348625986693201</v>
       </c>
       <c r="G70">
-        <v>0.1467056518539962</v>
+        <v>0.1681546399313123</v>
       </c>
       <c r="H70">
-        <v>0.1255326454570846</v>
-      </c>
-      <c r="I70">
-        <v>0.1215459849349193</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.1427081755666763</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.1161782942894677</v>
+        <v>0.1340026080268729</v>
       </c>
       <c r="C71">
-        <v>0.1240434176001241</v>
+        <v>0.137856149056147</v>
       </c>
       <c r="D71">
-        <v>0.1339760517747799</v>
+        <v>0.1521466432538575</v>
       </c>
       <c r="E71">
-        <v>0.1282724646537431</v>
+        <v>0.1464534182332221</v>
       </c>
       <c r="F71">
-        <v>0.1184019038549524</v>
+        <v>0.1328246042456125</v>
       </c>
       <c r="G71">
-        <v>0.1208907636327209</v>
+        <v>0.1458493552490336</v>
       </c>
       <c r="H71">
-        <v>0.1305295700643713</v>
-      </c>
-      <c r="I71">
-        <v>0.1277075341298406</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>0.1508672219352544</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.1412878486207091</v>
+        <v>0.1627722054654344</v>
       </c>
       <c r="C72">
-        <v>0.1285290384288432</v>
+        <v>0.1469112852641144</v>
       </c>
       <c r="D72">
-        <v>0.1289836105328191</v>
+        <v>0.147256736509054</v>
       </c>
       <c r="E72">
-        <v>0.1212713420334286</v>
+        <v>0.1361682486247865</v>
       </c>
       <c r="F72">
-        <v>0.1355457070995221</v>
+        <v>0.1593851702531444</v>
       </c>
       <c r="G72">
-        <v>0.1024333314663197</v>
+        <v>0.1145552141608986</v>
       </c>
       <c r="H72">
-        <v>0.1206516068645897</v>
-      </c>
-      <c r="I72">
-        <v>0.1212975149537686</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>0.1329511397225677</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.1124603416504671</v>
+        <v>0.1311201958306374</v>
       </c>
       <c r="C73">
-        <v>0.1306927231100565</v>
+        <v>0.1458168824522411</v>
       </c>
       <c r="D73">
-        <v>0.136119825785695</v>
+        <v>0.1527476712397344</v>
       </c>
       <c r="E73">
-        <v>0.1279268658081699</v>
+        <v>0.1442599145073329</v>
       </c>
       <c r="F73">
-        <v>0.1019471108857881</v>
+        <v>0.1133925115091317</v>
       </c>
       <c r="G73">
-        <v>0.1437582472973821</v>
+        <v>0.162547240028921</v>
       </c>
       <c r="H73">
-        <v>0.1299419234389985</v>
-      </c>
-      <c r="I73">
-        <v>0.1171529620234429</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>0.1501155844320017</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.1319998745030143</v>
+        <v>0.1365346298046242</v>
       </c>
       <c r="C74">
-        <v>0.08655365799832876</v>
+        <v>0.09889299900363731</v>
       </c>
       <c r="D74">
-        <v>0.1118869946037682</v>
+        <v>0.1176919307375869</v>
       </c>
       <c r="E74">
-        <v>0.10656331094355</v>
+        <v>0.1134741195171911</v>
       </c>
       <c r="F74">
-        <v>0.3004734351759494</v>
+        <v>0.3305308443859663</v>
       </c>
       <c r="G74">
-        <v>0.1006945684113854</v>
+        <v>0.1191879968208599</v>
       </c>
       <c r="H74">
-        <v>0.07513884936401743</v>
-      </c>
-      <c r="I74">
-        <v>0.08668930899998664</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>0.0836874797301343</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.1666251944462474</v>
+        <v>0.2003177660475624</v>
       </c>
       <c r="C75">
-        <v>0.1696490042900015</v>
+        <v>0.2011210080221671</v>
       </c>
       <c r="D75">
-        <v>0.07553407467438128</v>
+        <v>0.09102457101302165</v>
       </c>
       <c r="E75">
-        <v>0.06857649264165261</v>
+        <v>0.08100184002024172</v>
       </c>
       <c r="F75">
-        <v>0.06907814336001662</v>
+        <v>0.08222330646414673</v>
       </c>
       <c r="G75">
-        <v>0.1313147033578516</v>
+        <v>0.1507085826994938</v>
       </c>
       <c r="H75">
-        <v>0.1623054182240525</v>
-      </c>
-      <c r="I75">
-        <v>0.1569169690057965</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>0.1936029257333666</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.1259910315144173</v>
+        <v>0.1373701107237242</v>
       </c>
       <c r="C76">
-        <v>0.09068685158046269</v>
+        <v>0.1009735924627806</v>
       </c>
       <c r="D76">
-        <v>0.108644358935697</v>
+        <v>0.1175965532766867</v>
       </c>
       <c r="E76">
-        <v>0.08819061641368388</v>
+        <v>0.09478148229909528</v>
       </c>
       <c r="F76">
-        <v>0.3341567652890693</v>
+        <v>0.3682006627403104</v>
       </c>
       <c r="G76">
-        <v>0.07897755531298635</v>
+        <v>0.08766459238636441</v>
       </c>
       <c r="H76">
-        <v>0.08594239666000618</v>
-      </c>
-      <c r="I76">
-        <v>0.08741042429367717</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>0.09341300611103844</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.1259307157650802</v>
+        <v>0.1443962627984079</v>
       </c>
       <c r="C77">
-        <v>0.1147340822842006</v>
+        <v>0.1334734657564067</v>
       </c>
       <c r="D77">
-        <v>0.1076292835082923</v>
+        <v>0.121845681533133</v>
       </c>
       <c r="E77">
-        <v>0.09118342065709914</v>
+        <v>0.1026389590307739</v>
       </c>
       <c r="F77">
-        <v>0.1994766206226619</v>
+        <v>0.2279921398998549</v>
       </c>
       <c r="G77">
-        <v>0.1512970295638191</v>
+        <v>0.170090570954586</v>
       </c>
       <c r="H77">
-        <v>0.08774155503471345</v>
-      </c>
-      <c r="I77">
-        <v>0.1220072925641334</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.09956292002683757</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.149139304664531</v>
+        <v>0.1695477734070947</v>
       </c>
       <c r="C78">
-        <v>0.102947070817902</v>
+        <v>0.109684947880732</v>
       </c>
       <c r="D78">
-        <v>0.1221449384512084</v>
+        <v>0.139580115578878</v>
       </c>
       <c r="E78">
-        <v>0.1239389025925331</v>
+        <v>0.1362746785901836</v>
       </c>
       <c r="F78">
-        <v>0.09820444138170946</v>
+        <v>0.1084283004354003</v>
       </c>
       <c r="G78">
-        <v>0.150921879356638</v>
+        <v>0.1733605355981106</v>
       </c>
       <c r="H78">
-        <v>0.1407030065671674</v>
-      </c>
-      <c r="I78">
-        <v>0.1120004561683108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.163123648509601</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.1302037864292603</v>
+        <v>0.1411535590498755</v>
       </c>
       <c r="C79">
-        <v>0.1177031118973617</v>
+        <v>0.1266771509306911</v>
       </c>
       <c r="D79">
-        <v>0.1047982052614089</v>
+        <v>0.114662604252228</v>
       </c>
       <c r="E79">
-        <v>0.1049346640708714</v>
+        <v>0.1155228275155092</v>
       </c>
       <c r="F79">
-        <v>0.2438565768373921</v>
+        <v>0.2742269061423498</v>
       </c>
       <c r="G79">
-        <v>0.1220381288805672</v>
+        <v>0.1311623267617703</v>
       </c>
       <c r="H79">
-        <v>0.08726841071452028</v>
-      </c>
-      <c r="I79">
-        <v>0.08919711590861797</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.09659462534757625</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.125179772448127</v>
+        <v>0.1395495209614814</v>
       </c>
       <c r="C80">
-        <v>0.129145491616479</v>
+        <v>0.1481503491906275</v>
       </c>
       <c r="D80">
-        <v>0.1239444258810399</v>
+        <v>0.1400304384969352</v>
       </c>
       <c r="E80">
-        <v>0.1066697331788464</v>
+        <v>0.122296461847293</v>
       </c>
       <c r="F80">
-        <v>0.1264545963178049</v>
+        <v>0.1462822918530529</v>
       </c>
       <c r="G80">
-        <v>0.1392017422500453</v>
+        <v>0.1590424609130483</v>
       </c>
       <c r="H80">
-        <v>0.1263913569272178</v>
-      </c>
-      <c r="I80">
-        <v>0.1230128813804396</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>0.1446484767375616</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.1119770152790793</v>
+        <v>0.1235805229013022</v>
       </c>
       <c r="C81">
-        <v>0.1311160759391885</v>
+        <v>0.1451791287964836</v>
       </c>
       <c r="D81">
-        <v>0.1328207489773671</v>
+        <v>0.1498655944727123</v>
       </c>
       <c r="E81">
-        <v>0.1311013225607288</v>
+        <v>0.151738921565658</v>
       </c>
       <c r="F81">
-        <v>0.1191116456193999</v>
+        <v>0.1336809426423746</v>
       </c>
       <c r="G81">
-        <v>0.1174516798048057</v>
+        <v>0.1362710183147839</v>
       </c>
       <c r="H81">
-        <v>0.1419082123860959</v>
-      </c>
-      <c r="I81">
-        <v>0.1145132994333348</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>0.1596838713066853</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.1133982455375031</v>
+        <v>0.1308403796208859</v>
       </c>
       <c r="C82">
-        <v>0.126181031180839</v>
+        <v>0.1433902178311856</v>
       </c>
       <c r="D82">
-        <v>0.1398100976199687</v>
+        <v>0.1585341404404425</v>
       </c>
       <c r="E82">
-        <v>0.1349838169110666</v>
+        <v>0.1525226043443896</v>
       </c>
       <c r="F82">
-        <v>0.09275471777786026</v>
+        <v>0.1046020041908576</v>
       </c>
       <c r="G82">
-        <v>0.1380824189894502</v>
+        <v>0.1594284853700489</v>
       </c>
       <c r="H82">
-        <v>0.1310052147200811</v>
-      </c>
-      <c r="I82">
-        <v>0.1237844572632312</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>0.1506821682021902</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.1266964690436256</v>
+        <v>0.1388585513600431</v>
       </c>
       <c r="C83">
-        <v>0.1204077284016443</v>
+        <v>0.1382420931782288</v>
       </c>
       <c r="D83">
-        <v>0.1322223215566288</v>
+        <v>0.1498098411806275</v>
       </c>
       <c r="E83">
-        <v>0.1292905825526852</v>
+        <v>0.1477087276855787</v>
       </c>
       <c r="F83">
-        <v>0.1020904425966083</v>
+        <v>0.1129264404989895</v>
       </c>
       <c r="G83">
-        <v>0.1619722659781177</v>
+        <v>0.1814439825724911</v>
       </c>
       <c r="H83">
-        <v>0.1193339729393279</v>
-      </c>
-      <c r="I83">
-        <v>0.1079862169313623</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>0.1310103635240413</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.09739665711131008</v>
+        <v>0.1129504266109431</v>
       </c>
       <c r="C84">
-        <v>0.1340542152022988</v>
+        <v>0.15267176421409</v>
       </c>
       <c r="D84">
-        <v>0.1323590783893464</v>
+        <v>0.1537372766753608</v>
       </c>
       <c r="E84">
-        <v>0.1225213668784066</v>
+        <v>0.1414611747926793</v>
       </c>
       <c r="F84">
-        <v>0.1085642975724285</v>
+        <v>0.1243361207409062</v>
       </c>
       <c r="G84">
-        <v>0.1545284722200092</v>
+        <v>0.1737980262447602</v>
       </c>
       <c r="H84">
-        <v>0.1242311547643716</v>
-      </c>
-      <c r="I84">
-        <v>0.1263447578618291</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>0.1410452107212604</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.1281324677239729</v>
+        <v>0.1415209771852915</v>
       </c>
       <c r="C85">
-        <v>0.136547286378079</v>
+        <v>0.1522245772204739</v>
       </c>
       <c r="D85">
-        <v>0.1409617027491799</v>
+        <v>0.1629284583222201</v>
       </c>
       <c r="E85">
-        <v>0.1282349192657096</v>
+        <v>0.1427897108453331</v>
       </c>
       <c r="F85">
-        <v>0.0995728964788266</v>
+        <v>0.1104232922700028</v>
       </c>
       <c r="G85">
-        <v>0.1557294727606576</v>
+        <v>0.1756600991625555</v>
       </c>
       <c r="H85">
-        <v>0.1009201807324828</v>
-      </c>
-      <c r="I85">
-        <v>0.1099010739110915</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>0.1144528849941231</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.1084314044066932</v>
+        <v>0.1209354297033654</v>
       </c>
       <c r="C86">
-        <v>0.1295756456546993</v>
+        <v>0.1464172370431178</v>
       </c>
       <c r="D86">
-        <v>0.1332720901406942</v>
+        <v>0.1527039752311525</v>
       </c>
       <c r="E86">
-        <v>0.1266470405165405</v>
+        <v>0.1452631351171215</v>
       </c>
       <c r="F86">
-        <v>0.1360108701262162</v>
+        <v>0.1546120713095871</v>
       </c>
       <c r="G86">
-        <v>0.1233352312215016</v>
+        <v>0.1436356102293512</v>
       </c>
       <c r="H86">
-        <v>0.1235100993840149</v>
-      </c>
-      <c r="I86">
-        <v>0.1192176185496402</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>0.1364325413663044</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.1383829983079931</v>
+        <v>0.1504524044163657</v>
       </c>
       <c r="C87">
-        <v>0.1261355189377289</v>
+        <v>0.1396718150896399</v>
       </c>
       <c r="D87">
-        <v>0.1506691083922851</v>
+        <v>0.1677666032971092</v>
       </c>
       <c r="E87">
-        <v>0.1158269601750514</v>
+        <v>0.1328851047037809</v>
       </c>
       <c r="F87">
-        <v>0.1145267273053123</v>
+        <v>0.131843897702609</v>
       </c>
       <c r="G87">
-        <v>0.1286303201714836</v>
+        <v>0.1427305517120872</v>
       </c>
       <c r="H87">
-        <v>0.1248155875132335</v>
-      </c>
-      <c r="I87">
-        <v>0.1010127791969122</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>0.1346496230784081</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.1201001166338533</v>
+        <v>0.1325436968910942</v>
       </c>
       <c r="C88">
-        <v>0.1334694650758385</v>
+        <v>0.1490149447648521</v>
       </c>
       <c r="D88">
-        <v>0.1500574778475128</v>
+        <v>0.1689528231057551</v>
       </c>
       <c r="E88">
-        <v>0.1201090629240637</v>
+        <v>0.1360976533219623</v>
       </c>
       <c r="F88">
-        <v>0.0961677547397925</v>
+        <v>0.1129156171667008</v>
       </c>
       <c r="G88">
-        <v>0.1367972988047906</v>
+        <v>0.1550331317175402</v>
       </c>
       <c r="H88">
-        <v>0.1287977854432009</v>
-      </c>
-      <c r="I88">
-        <v>0.1145010385309477</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>0.1454421330320954</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.1249938456816286</v>
+        <v>0.1471166654059369</v>
       </c>
       <c r="C89">
-        <v>0.1558580720747771</v>
+        <v>0.1811103305446924</v>
       </c>
       <c r="D89">
-        <v>0.07616137272145714</v>
+        <v>0.09386407954417413</v>
       </c>
       <c r="E89">
-        <v>0.05192936312462128</v>
+        <v>0.06483147834163085</v>
       </c>
       <c r="F89">
-        <v>0.09223445928242452</v>
+        <v>0.1070233917041775</v>
       </c>
       <c r="G89">
-        <v>0.196950788990365</v>
+        <v>0.2315563289809319</v>
       </c>
       <c r="H89">
-        <v>0.1466115061557972</v>
-      </c>
-      <c r="I89">
-        <v>0.1552605919689291</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>0.1744977254784565</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.1075621063082053</v>
+        <v>0.1236221887466579</v>
       </c>
       <c r="C90">
-        <v>0.1141085340586698</v>
+        <v>0.1320253848633934</v>
       </c>
       <c r="D90">
-        <v>0.1319138013601532</v>
+        <v>0.1455764098863257</v>
       </c>
       <c r="E90">
-        <v>0.1216526848652459</v>
+        <v>0.1333422221323984</v>
       </c>
       <c r="F90">
-        <v>0.1259542310142875</v>
+        <v>0.1404874875936842</v>
       </c>
       <c r="G90">
-        <v>0.1651244833014042</v>
+        <v>0.1894158456905161</v>
       </c>
       <c r="H90">
-        <v>0.1192840655011776</v>
-      </c>
-      <c r="I90">
-        <v>0.1144000935908565</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>0.1355304610870241</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.1117039584779866</v>
+        <v>0.1276039170290129</v>
       </c>
       <c r="C91">
-        <v>0.1390347358360363</v>
+        <v>0.161761496763792</v>
       </c>
       <c r="D91">
-        <v>0.1183830644900472</v>
+        <v>0.1323070978347094</v>
       </c>
       <c r="E91">
-        <v>0.100721036787964</v>
+        <v>0.1159968431006492</v>
       </c>
       <c r="F91">
-        <v>0.1067341598419805</v>
+        <v>0.1212024325264653</v>
       </c>
       <c r="G91">
-        <v>0.1616242847401395</v>
+        <v>0.1852287678194769</v>
       </c>
       <c r="H91">
-        <v>0.1321590820858264</v>
-      </c>
-      <c r="I91">
-        <v>0.1296396777400196</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>0.1558994449258941</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.118227223689358</v>
+        <v>0.1322946239374739</v>
       </c>
       <c r="C92">
-        <v>0.145566486547028</v>
+        <v>0.1628095147999685</v>
       </c>
       <c r="D92">
-        <v>0.08485291517451826</v>
+        <v>0.0958311533029118</v>
       </c>
       <c r="E92">
-        <v>0.08419962199057908</v>
+        <v>0.09746532909234427</v>
       </c>
       <c r="F92">
-        <v>0.1118978036477525</v>
+        <v>0.1244524181378706</v>
       </c>
       <c r="G92">
-        <v>0.1576509372847974</v>
+        <v>0.1799600510142683</v>
       </c>
       <c r="H92">
-        <v>0.1839238264634503</v>
-      </c>
-      <c r="I92">
-        <v>0.1136811852025164</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>0.2071869097151628</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.1008599717420527</v>
+        <v>0.1223812402301115</v>
       </c>
       <c r="C93">
-        <v>0.2053465013984028</v>
+        <v>0.2345474176227076</v>
       </c>
       <c r="D93">
-        <v>0.09950040226135767</v>
+        <v>0.1143197941030324</v>
       </c>
       <c r="E93">
-        <v>0.0954245162977593</v>
+        <v>0.1117984194189707</v>
       </c>
       <c r="F93">
-        <v>0.07956070513602866</v>
+        <v>0.08823268113763237</v>
       </c>
       <c r="G93">
-        <v>0.1722384570587785</v>
+        <v>0.1980149203485241</v>
       </c>
       <c r="H93">
-        <v>0.1123645678599843</v>
-      </c>
-      <c r="I93">
-        <v>0.1347048782456361</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>0.1307055271390214</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.1048398810095573</v>
+        <v>0.1193649526006266</v>
       </c>
       <c r="C94">
-        <v>0.1145025063214511</v>
+        <v>0.1319240277122502</v>
       </c>
       <c r="D94">
-        <v>0.1296854341130284</v>
+        <v>0.1495895852771679</v>
       </c>
       <c r="E94">
-        <v>0.1276723244213431</v>
+        <v>0.1466108760557243</v>
       </c>
       <c r="F94">
-        <v>0.1050861171736865</v>
+        <v>0.119435927965723</v>
       </c>
       <c r="G94">
-        <v>0.1625585164902215</v>
+        <v>0.1848625962275896</v>
       </c>
       <c r="H94">
-        <v>0.1297415792941633</v>
-      </c>
-      <c r="I94">
-        <v>0.1259136411765489</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>0.1482120341609183</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.1144717147905997</v>
+        <v>0.1340064428494111</v>
       </c>
       <c r="C95">
-        <v>0.1162679721515531</v>
+        <v>0.1296616828769529</v>
       </c>
       <c r="D95">
-        <v>0.1464786489265495</v>
+        <v>0.1655477027255469</v>
       </c>
       <c r="E95">
-        <v>0.1384114735643999</v>
+        <v>0.1579888735958926</v>
       </c>
       <c r="F95">
-        <v>0.1132038556588061</v>
+        <v>0.1259502791672058</v>
       </c>
       <c r="G95">
-        <v>0.1197512774925841</v>
+        <v>0.1336818322666347</v>
       </c>
       <c r="H95">
-        <v>0.1305740857031434</v>
-      </c>
-      <c r="I95">
-        <v>0.1208409717123642</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>0.153163186518356</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.1210238423627648</v>
+        <v>0.138977745083055</v>
       </c>
       <c r="C96">
-        <v>0.1243479682528956</v>
+        <v>0.1373437625178614</v>
       </c>
       <c r="D96">
-        <v>0.1310019566906771</v>
+        <v>0.1505012995199799</v>
       </c>
       <c r="E96">
-        <v>0.1267453898257426</v>
+        <v>0.1441353903337906</v>
       </c>
       <c r="F96">
-        <v>0.1492250978440842</v>
+        <v>0.1678068001489992</v>
       </c>
       <c r="G96">
-        <v>0.1102183686338118</v>
+        <v>0.1283012655633732</v>
       </c>
       <c r="H96">
-        <v>0.1163022533140463</v>
-      </c>
-      <c r="I96">
-        <v>0.1211351230759776</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>0.1329337368329406</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.146436081551614</v>
+        <v>0.1681290772538951</v>
       </c>
       <c r="C97">
-        <v>0.1310555338135363</v>
+        <v>0.1484024560286492</v>
       </c>
       <c r="D97">
-        <v>0.1322108095724926</v>
+        <v>0.1518379030489333</v>
       </c>
       <c r="E97">
-        <v>0.1377537896876483</v>
+        <v>0.1580025447366424</v>
       </c>
       <c r="F97">
-        <v>0.1274086550104203</v>
+        <v>0.1408898311665207</v>
       </c>
       <c r="G97">
-        <v>0.08319978055706059</v>
+        <v>0.09745363318314021</v>
       </c>
       <c r="H97">
-        <v>0.1188655954307021</v>
-      </c>
-      <c r="I97">
-        <v>0.1230697543765258</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>0.135284554582219</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.1261468564623693</v>
+        <v>0.1431058420041258</v>
       </c>
       <c r="C98">
-        <v>0.138567085145081</v>
+        <v>0.1518873606921786</v>
       </c>
       <c r="D98">
-        <v>0.1401208103815209</v>
+        <v>0.1581128381264124</v>
       </c>
       <c r="E98">
-        <v>0.1345637345422787</v>
+        <v>0.1521779000412468</v>
       </c>
       <c r="F98">
-        <v>0.1134640455198307</v>
+        <v>0.1252872749311733</v>
       </c>
       <c r="G98">
-        <v>0.1207788190583313</v>
+        <v>0.1358260169383614</v>
       </c>
       <c r="H98">
-        <v>0.1159114373648035</v>
-      </c>
-      <c r="I98">
-        <v>0.1104472115257848</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>0.1336027672665018</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.1162460042128737</v>
+        <v>0.1335570689163386</v>
       </c>
       <c r="C99">
-        <v>0.1170965240690942</v>
+        <v>0.1329951026941052</v>
       </c>
       <c r="D99">
-        <v>0.1284354973920075</v>
+        <v>0.1448923818154395</v>
       </c>
       <c r="E99">
-        <v>0.1216209126146985</v>
+        <v>0.1371389531363552</v>
       </c>
       <c r="F99">
-        <v>0.1136525288219623</v>
+        <v>0.132473065436939</v>
       </c>
       <c r="G99">
-        <v>0.1617283214044262</v>
+        <v>0.1783325574785882</v>
       </c>
       <c r="H99">
-        <v>0.1219046300463931</v>
-      </c>
-      <c r="I99">
-        <v>0.1193155814385444</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>0.1406108705222343</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.1167442941002973</v>
+        <v>0.1315812573521897</v>
       </c>
       <c r="C100">
-        <v>0.1406675586202452</v>
+        <v>0.1609644790135666</v>
       </c>
       <c r="D100">
-        <v>0.1143611201761674</v>
+        <v>0.1314763687136447</v>
       </c>
       <c r="E100">
-        <v>0.1081129169051665</v>
+        <v>0.1289856268130726</v>
       </c>
       <c r="F100">
-        <v>0.1136318117282987</v>
+        <v>0.1332271357039485</v>
       </c>
       <c r="G100">
-        <v>0.1565559359117657</v>
+        <v>0.1770660060409413</v>
       </c>
       <c r="H100">
-        <v>0.1180640167444491</v>
-      </c>
-      <c r="I100">
-        <v>0.13186234581361</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>0.1366991263626365</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.1492157456740725</v>
+        <v>0.1825285738129207</v>
       </c>
       <c r="C101">
-        <v>0.1755585576422821</v>
+        <v>0.2201394514742505</v>
       </c>
       <c r="D101">
-        <v>0.0475654323071134</v>
+        <v>0.05934725745259971</v>
       </c>
       <c r="E101">
-        <v>0.06607468536961102</v>
+        <v>0.07864023360538606</v>
       </c>
       <c r="F101">
-        <v>0.04179588338996919</v>
+        <v>0.05035442598324909</v>
       </c>
       <c r="G101">
-        <v>0.1719892225621008</v>
+        <v>0.2067606983466174</v>
       </c>
       <c r="H101">
-        <v>0.1611585600423374</v>
-      </c>
-      <c r="I101">
-        <v>0.1866419130125136</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>0.2022293593249766</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.1816303934971414</v>
+        <v>0.2161971595438636</v>
       </c>
       <c r="C102">
-        <v>0.1737476965845936</v>
+        <v>0.2043584481570159</v>
       </c>
       <c r="D102">
-        <v>0.06718703220714423</v>
+        <v>0.07894344441535851</v>
       </c>
       <c r="E102">
-        <v>0.07696753020815739</v>
+        <v>0.09296979643324212</v>
       </c>
       <c r="F102">
-        <v>0.06006853975021577</v>
+        <v>0.06997209157959514</v>
       </c>
       <c r="G102">
-        <v>0.1110609989477056</v>
+        <v>0.130627619901485</v>
       </c>
       <c r="H102">
-        <v>0.1792776734321022</v>
-      </c>
-      <c r="I102">
-        <v>0.1500601353729397</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>0.2069314399694398</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.1636242951213298</v>
+        <v>0.1958062056236767</v>
       </c>
       <c r="C103">
-        <v>0.1410091222905087</v>
+        <v>0.1726199582207656</v>
       </c>
       <c r="D103">
-        <v>0.04565825635671879</v>
+        <v>0.05480492305931978</v>
       </c>
       <c r="E103">
-        <v>0.05389571610725665</v>
+        <v>0.06419903204084243</v>
       </c>
       <c r="F103">
-        <v>0.0367413449670497</v>
+        <v>0.04375834625484734</v>
       </c>
       <c r="G103">
-        <v>0.2217806946336529</v>
+        <v>0.2625778393758408</v>
       </c>
       <c r="H103">
-        <v>0.1729198205738433</v>
-      </c>
-      <c r="I103">
-        <v>0.1643707499496403</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>0.2062336954247075</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.29365544012694</v>
+        <v>0.3286982920743529</v>
       </c>
       <c r="C104">
-        <v>0.03880855372571623</v>
+        <v>0.04295871462955286</v>
       </c>
       <c r="D104">
-        <v>0.1983534003139502</v>
+        <v>0.211698662702014</v>
       </c>
       <c r="E104">
-        <v>0.136652066808734</v>
+        <v>0.1526533353808473</v>
       </c>
       <c r="F104">
-        <v>0.04411484776752286</v>
+        <v>0.04460535166556091</v>
       </c>
       <c r="G104">
-        <v>0.01993730433952148</v>
+        <v>0.02307455626928872</v>
       </c>
       <c r="H104">
-        <v>0.1873241995904425</v>
-      </c>
-      <c r="I104">
-        <v>0.08115418732717286</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>0.1963110872783833</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.1132393536928534</v>
+        <v>0.1326318936000777</v>
       </c>
       <c r="C105">
-        <v>0.1393290159140566</v>
+        <v>0.1536099760195462</v>
       </c>
       <c r="D105">
-        <v>0.1653848771351362</v>
+        <v>0.1937676595654008</v>
       </c>
       <c r="E105">
-        <v>0.1267644063614787</v>
+        <v>0.1423659437304754</v>
       </c>
       <c r="F105">
-        <v>0.09651928441941623</v>
+        <v>0.107302312917174</v>
       </c>
       <c r="G105">
-        <v>0.1031436200684465</v>
+        <v>0.1188893651911902</v>
       </c>
       <c r="H105">
-        <v>0.1369268071251412</v>
-      </c>
-      <c r="I105">
-        <v>0.1186926352834712</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>0.1514328489761358</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.1169527476342904</v>
+        <v>0.1312619308077498</v>
       </c>
       <c r="C106">
-        <v>0.1288425143346935</v>
+        <v>0.1459954653949013</v>
       </c>
       <c r="D106">
-        <v>0.1334004642274682</v>
+        <v>0.1509720089231896</v>
       </c>
       <c r="E106">
-        <v>0.1216131041748417</v>
+        <v>0.1367683126258622</v>
       </c>
       <c r="F106">
-        <v>0.1108609146926632</v>
+        <v>0.1283467806322998</v>
       </c>
       <c r="G106">
-        <v>0.1430432805558021</v>
+        <v>0.1644707592293945</v>
       </c>
       <c r="H106">
-        <v>0.127723653905364</v>
-      </c>
-      <c r="I106">
-        <v>0.1175633204748765</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>0.1421847423866029</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.1198473783941668</v>
+        <v>0.1355529034128216</v>
       </c>
       <c r="C107">
-        <v>0.1281115379029892</v>
+        <v>0.1466810600662583</v>
       </c>
       <c r="D107">
-        <v>0.1181512620706028</v>
+        <v>0.1356041087079119</v>
       </c>
       <c r="E107">
-        <v>0.1177016039692816</v>
+        <v>0.1351193014439742</v>
       </c>
       <c r="F107">
-        <v>0.1032244177599029</v>
+        <v>0.1169918468918165</v>
       </c>
       <c r="G107">
-        <v>0.1588917538595895</v>
+        <v>0.1812655937093848</v>
       </c>
       <c r="H107">
-        <v>0.1323121565549066</v>
-      </c>
-      <c r="I107">
-        <v>0.1217598894885607</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>0.1487851857678327</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.1223389912295949</v>
+        <v>0.1374080972930374</v>
       </c>
       <c r="C108">
-        <v>0.1289067312294306</v>
+        <v>0.1459450404076185</v>
       </c>
       <c r="D108">
-        <v>0.1351883503299477</v>
+        <v>0.152157384379057</v>
       </c>
       <c r="E108">
-        <v>0.1281554877145927</v>
+        <v>0.1442123641857577</v>
       </c>
       <c r="F108">
-        <v>0.1100924091657357</v>
+        <v>0.125561436464626</v>
       </c>
       <c r="G108">
-        <v>0.1212364840472102</v>
+        <v>0.1413964738169913</v>
       </c>
       <c r="H108">
-        <v>0.1360053391455164</v>
-      </c>
-      <c r="I108">
-        <v>0.1180762071379718</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>0.1533192034529119</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.1323207476652906</v>
+        <v>0.1486375766091027</v>
       </c>
       <c r="C109">
-        <v>0.1323341134560224</v>
+        <v>0.1498585225276626</v>
       </c>
       <c r="D109">
-        <v>0.1210179730136142</v>
+        <v>0.1376958213141606</v>
       </c>
       <c r="E109">
-        <v>0.1186167741730229</v>
+        <v>0.1365560167382266</v>
       </c>
       <c r="F109">
-        <v>0.1031583522343893</v>
+        <v>0.1164956551018375</v>
       </c>
       <c r="G109">
-        <v>0.1499106933344823</v>
+        <v>0.1719215610612213</v>
       </c>
       <c r="H109">
-        <v>0.1215315949093751</v>
-      </c>
-      <c r="I109">
-        <v>0.1211097512138033</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>0.1388348466477886</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.1182512548245166</v>
+        <v>0.1322231178289493</v>
       </c>
       <c r="C110">
-        <v>0.1268406361011045</v>
+        <v>0.1459462958282063</v>
       </c>
       <c r="D110">
-        <v>0.1205430450868849</v>
+        <v>0.1336878250019833</v>
       </c>
       <c r="E110">
-        <v>0.1116805817288246</v>
+        <v>0.1243854265584012</v>
       </c>
       <c r="F110">
-        <v>0.1492266801931388</v>
+        <v>0.1719909596367651</v>
       </c>
       <c r="G110">
-        <v>0.1358165935818481</v>
+        <v>0.1570045102091249</v>
       </c>
       <c r="H110">
-        <v>0.1200732038295506</v>
-      </c>
-      <c r="I110">
-        <v>0.1175680046541319</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>0.13476186493657</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.1246412578620033</v>
+        <v>0.1413354407173249</v>
       </c>
       <c r="C111">
-        <v>0.1272488133275537</v>
+        <v>0.1458357200631868</v>
       </c>
       <c r="D111">
-        <v>0.13604383196773</v>
+        <v>0.1562001949264714</v>
       </c>
       <c r="E111">
-        <v>0.1185028474664887</v>
+        <v>0.1350351880093442</v>
       </c>
       <c r="F111">
-        <v>0.1364822403652313</v>
+        <v>0.1515400076984271</v>
       </c>
       <c r="G111">
-        <v>0.1006481853745363</v>
+        <v>0.1156400037700634</v>
       </c>
       <c r="H111">
-        <v>0.1357318852934073</v>
-      </c>
-      <c r="I111">
-        <v>0.1207009383430494</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>0.1544134448151822</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.1369633886207463</v>
+        <v>0.1525386551076664</v>
       </c>
       <c r="C112">
-        <v>0.1129566884008395</v>
+        <v>0.1274001234755209</v>
       </c>
       <c r="D112">
-        <v>0.1346613766177344</v>
+        <v>0.1547330879522064</v>
       </c>
       <c r="E112">
-        <v>0.1339947181039473</v>
+        <v>0.1544820134662085</v>
       </c>
       <c r="F112">
-        <v>0.1620060581326958</v>
+        <v>0.1747398450341832</v>
       </c>
       <c r="G112">
-        <v>0.09492904736736234</v>
+        <v>0.1092816183587719</v>
       </c>
       <c r="H112">
-        <v>0.1107172588662384</v>
-      </c>
-      <c r="I112">
-        <v>0.113771463890436</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>0.1268246566054427</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.1205219541217193</v>
+        <v>0.1315137623793181</v>
       </c>
       <c r="C113">
-        <v>0.1260888660247593</v>
+        <v>0.1516738412370356</v>
       </c>
       <c r="D113">
-        <v>0.1324284895303938</v>
+        <v>0.1483947952828198</v>
       </c>
       <c r="E113">
-        <v>0.1331936466041819</v>
+        <v>0.1504691188168044</v>
       </c>
       <c r="F113">
-        <v>0.09829672638190901</v>
+        <v>0.1085077319243135</v>
       </c>
       <c r="G113">
-        <v>0.1433182622175387</v>
+        <v>0.1656765190413151</v>
       </c>
       <c r="H113">
-        <v>0.1264388764039535</v>
-      </c>
-      <c r="I113">
-        <v>0.1197131787155446</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>0.1437642313183934</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.1265592309006213</v>
+        <v>0.1431662614451363</v>
       </c>
       <c r="C114">
-        <v>0.1274010315928556</v>
+        <v>0.1370741629333888</v>
       </c>
       <c r="D114">
-        <v>0.1378714994873446</v>
+        <v>0.1533119899081097</v>
       </c>
       <c r="E114">
-        <v>0.1249013590822275</v>
+        <v>0.1413777236657435</v>
       </c>
       <c r="F114">
-        <v>0.1058812064970342</v>
+        <v>0.1233455797203711</v>
       </c>
       <c r="G114">
-        <v>0.1416173618980656</v>
+        <v>0.1568576089111529</v>
       </c>
       <c r="H114">
-        <v>0.1300932911343178</v>
-      </c>
-      <c r="I114">
-        <v>0.1056750194075333</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>0.1448666734160979</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.107415322870873</v>
+        <v>0.1213580258718414</v>
       </c>
       <c r="C115">
-        <v>0.1194855942595653</v>
+        <v>0.1337896815873129</v>
       </c>
       <c r="D115">
-        <v>0.1489595805471404</v>
+        <v>0.1669784678544035</v>
       </c>
       <c r="E115">
-        <v>0.1417021632860622</v>
+        <v>0.1583515334898331</v>
       </c>
       <c r="F115">
-        <v>0.1273778847885917</v>
+        <v>0.1357399245215455</v>
       </c>
       <c r="G115">
-        <v>0.1400517317942193</v>
+        <v>0.1566951583593191</v>
       </c>
       <c r="H115">
-        <v>0.1128582937002214</v>
-      </c>
-      <c r="I115">
-        <v>0.1021494287533268</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>0.1270872083157445</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.1133655031168331</v>
+        <v>0.1321417814540771</v>
       </c>
       <c r="C116">
-        <v>0.1281554129247315</v>
+        <v>0.1456784399965843</v>
       </c>
       <c r="D116">
-        <v>0.1361647585707494</v>
+        <v>0.1589604811701376</v>
       </c>
       <c r="E116">
-        <v>0.1241381422014285</v>
+        <v>0.1486478974119641</v>
       </c>
       <c r="F116">
-        <v>0.09253209041988127</v>
+        <v>0.1041605203392388</v>
       </c>
       <c r="G116">
-        <v>0.1520159991504047</v>
+        <v>0.1807689364833123</v>
       </c>
       <c r="H116">
-        <v>0.1153107352130004</v>
-      </c>
-      <c r="I116">
-        <v>0.1383173584029712</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>0.1296419431446858</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.1427698450090301</v>
+        <v>0.1704210248004938</v>
       </c>
       <c r="C117">
-        <v>0.1882965083681233</v>
+        <v>0.2260103510891754</v>
       </c>
       <c r="D117">
-        <v>0.05315152323152338</v>
+        <v>0.06359671071993522</v>
       </c>
       <c r="E117">
-        <v>0.06486356459091992</v>
+        <v>0.07690226966457674</v>
       </c>
       <c r="F117">
-        <v>0.0539227022294311</v>
+        <v>0.06443771205297061</v>
       </c>
       <c r="G117">
-        <v>0.1843875400010071</v>
+        <v>0.2156647779124392</v>
       </c>
       <c r="H117">
-        <v>0.1548886548972778</v>
-      </c>
-      <c r="I117">
-        <v>0.1577196616726874</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>0.1829671537604091</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.1323029809358173</v>
+        <v>0.1547230894622711</v>
       </c>
       <c r="C118">
-        <v>0.1695161594562757</v>
+        <v>0.1977478101030914</v>
       </c>
       <c r="D118">
-        <v>0.07840308947225044</v>
+        <v>0.09500543387604875</v>
       </c>
       <c r="E118">
-        <v>0.09257002722003474</v>
+        <v>0.1105886718692764</v>
       </c>
       <c r="F118">
-        <v>0.04363986870804336</v>
+        <v>0.04960786198370082</v>
       </c>
       <c r="G118">
-        <v>0.1797488887102386</v>
+        <v>0.2079739612433195</v>
       </c>
       <c r="H118">
-        <v>0.1569261926181316</v>
-      </c>
-      <c r="I118">
-        <v>0.1468927928792083</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>0.1843531714622919</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.1265764748029749</v>
+        <v>0.1497430343232783</v>
       </c>
       <c r="C119">
-        <v>0.1713808621695384</v>
+        <v>0.2005304023895147</v>
       </c>
       <c r="D119">
-        <v>0.06486135469152331</v>
+        <v>0.07606103193631132</v>
       </c>
       <c r="E119">
-        <v>0.09358715549863723</v>
+        <v>0.1155678661303869</v>
       </c>
       <c r="F119">
-        <v>0.04618107806865388</v>
+        <v>0.05336638492080259</v>
       </c>
       <c r="G119">
-        <v>0.1862936114478652</v>
+        <v>0.2179793862201087</v>
       </c>
       <c r="H119">
-        <v>0.1569469546538444</v>
-      </c>
-      <c r="I119">
-        <v>0.1541725086669628</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>0.1867518940795976</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.1259247911315991</v>
+        <v>0.1493794237076755</v>
       </c>
       <c r="C120">
-        <v>0.1761491233340361</v>
+        <v>0.2062503135124861</v>
       </c>
       <c r="D120">
-        <v>0.06029159334886657</v>
+        <v>0.06920137962720795</v>
       </c>
       <c r="E120">
-        <v>0.08065665009045442</v>
+        <v>0.09387167996161297</v>
       </c>
       <c r="F120">
-        <v>0.04065374333795776</v>
+        <v>0.04647603358773536</v>
       </c>
       <c r="G120">
-        <v>0.2062602509631793</v>
+        <v>0.2406176007539364</v>
       </c>
       <c r="H120">
-        <v>0.1630355490041068</v>
-      </c>
-      <c r="I120">
-        <v>0.1470282987897999</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>0.1942035688493457</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.1241067204074117</v>
+        <v>0.1422087845962665</v>
       </c>
       <c r="C121">
-        <v>0.1169102172552569</v>
+        <v>0.1319756624494379</v>
       </c>
       <c r="D121">
-        <v>0.1249558713793246</v>
+        <v>0.1522405811715693</v>
       </c>
       <c r="E121">
-        <v>0.1160321359803221</v>
+        <v>0.1357788200436414</v>
       </c>
       <c r="F121">
-        <v>0.1198624574766266</v>
+        <v>0.1369124328605956</v>
       </c>
       <c r="G121">
-        <v>0.1291905453193338</v>
+        <v>0.1442429384303174</v>
       </c>
       <c r="H121">
-        <v>0.1371667671372858</v>
-      </c>
-      <c r="I121">
-        <v>0.1317752850444385</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>0.1566407804481719</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.1445104027490844</v>
+        <v>0.172415677245507</v>
       </c>
       <c r="C122">
-        <v>0.178662757806388</v>
+        <v>0.2115386511611173</v>
       </c>
       <c r="D122">
-        <v>0.06002659209385444</v>
+        <v>0.06900422095837752</v>
       </c>
       <c r="E122">
-        <v>0.07492277185178564</v>
+        <v>0.08802516390691731</v>
       </c>
       <c r="F122">
-        <v>0.05705011541840223</v>
+        <v>0.06942262187516494</v>
       </c>
       <c r="G122">
-        <v>0.1727053591188046</v>
+        <v>0.2064252677999581</v>
       </c>
       <c r="H122">
-        <v>0.1530903145420562</v>
-      </c>
-      <c r="I122">
-        <v>0.1590316864196246</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>0.1831683970529577</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.1163657111555067</v>
+        <v>0.1302845869876121</v>
       </c>
       <c r="C123">
-        <v>0.1227748653296375</v>
+        <v>0.1388424379686232</v>
       </c>
       <c r="D123">
-        <v>0.133288494225653</v>
+        <v>0.1506007202250427</v>
       </c>
       <c r="E123">
-        <v>0.1206165530879906</v>
+        <v>0.1374233097188658</v>
       </c>
       <c r="F123">
-        <v>0.1418557636057727</v>
+        <v>0.1530180363890944</v>
       </c>
       <c r="G123">
-        <v>0.1353646702650296</v>
+        <v>0.1511872925234317</v>
       </c>
       <c r="H123">
-        <v>0.1216306333476524</v>
-      </c>
-      <c r="I123">
-        <v>0.1081033089827575</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>0.1386436161873301</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.1371822211082199</v>
+        <v>0.157967949758341</v>
       </c>
       <c r="C124">
-        <v>0.1119759281182842</v>
+        <v>0.1279867350225526</v>
       </c>
       <c r="D124">
-        <v>0.138320845859835</v>
+        <v>0.1512855416392813</v>
       </c>
       <c r="E124">
-        <v>0.1221402912516272</v>
+        <v>0.1348365183215176</v>
       </c>
       <c r="F124">
-        <v>0.1123819715333913</v>
+        <v>0.1228681648234383</v>
       </c>
       <c r="G124">
-        <v>0.1464807536956114</v>
+        <v>0.1646657109925635</v>
       </c>
       <c r="H124">
-        <v>0.1284109373414327</v>
-      </c>
-      <c r="I124">
-        <v>0.1031070510915981</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>0.1403893794423056</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.1201796927996371</v>
+        <v>0.1354591659846236</v>
       </c>
       <c r="C125">
-        <v>0.1108150084455399</v>
+        <v>0.1264197776391355</v>
       </c>
       <c r="D125">
-        <v>0.1224624424844797</v>
+        <v>0.1374993957672695</v>
       </c>
       <c r="E125">
-        <v>0.1101289613127486</v>
+        <v>0.1219969857889363</v>
       </c>
       <c r="F125">
-        <v>0.1848887021238737</v>
+        <v>0.2009016633146317</v>
       </c>
       <c r="G125">
-        <v>0.1313133775941867</v>
+        <v>0.149079635676126</v>
       </c>
       <c r="H125">
-        <v>0.1135852476018282</v>
-      </c>
-      <c r="I125">
-        <v>0.1066265676377061</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>0.1286433758292775</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.128562098863414</v>
+        <v>0.1434816785801188</v>
       </c>
       <c r="C126">
-        <v>0.1163891569797292</v>
+        <v>0.1334341935436725</v>
       </c>
       <c r="D126">
-        <v>0.1126947011786559</v>
+        <v>0.1256370061533753</v>
       </c>
       <c r="E126">
-        <v>0.1287469162129174</v>
+        <v>0.1460499018461423</v>
       </c>
       <c r="F126">
-        <v>0.1818303870873109</v>
+        <v>0.201835225964257</v>
       </c>
       <c r="G126">
-        <v>0.1139796577825625</v>
+        <v>0.1303102747554379</v>
       </c>
       <c r="H126">
-        <v>0.1048406753447536</v>
-      </c>
-      <c r="I126">
-        <v>0.1129564065506565</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>0.1192517191569962</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.0969825521477523</v>
+        <v>0.1113612982169623</v>
       </c>
       <c r="C127">
-        <v>0.1037507009368862</v>
+        <v>0.1146582083518902</v>
       </c>
       <c r="D127">
-        <v>0.1259253207669965</v>
+        <v>0.1441532062306481</v>
       </c>
       <c r="E127">
-        <v>0.1266110460334628</v>
+        <v>0.1470486304953598</v>
       </c>
       <c r="F127">
-        <v>0.1518832697807517</v>
+        <v>0.1671077062093977</v>
       </c>
       <c r="G127">
-        <v>0.1686372969980704</v>
+        <v>0.1881876598838908</v>
       </c>
       <c r="H127">
-        <v>0.1135379315597606</v>
-      </c>
-      <c r="I127">
-        <v>0.1126718817763197</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>0.1274832906118509</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.1259195649814907</v>
+        <v>0.1414965751140426</v>
       </c>
       <c r="C128">
-        <v>0.1188720189505317</v>
+        <v>0.1338383025334787</v>
       </c>
       <c r="D128">
-        <v>0.1442546359897117</v>
+        <v>0.1640791521891566</v>
       </c>
       <c r="E128">
-        <v>0.129731863856638</v>
+        <v>0.143577747832816</v>
       </c>
       <c r="F128">
-        <v>0.1210110976838376</v>
+        <v>0.1371251112086124</v>
       </c>
       <c r="G128">
-        <v>0.131946520333813</v>
+        <v>0.1491620427385308</v>
       </c>
       <c r="H128">
-        <v>0.1138981058476294</v>
-      </c>
-      <c r="I128">
-        <v>0.1143661923563477</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>0.130721068383363</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.1128246404584093</v>
+        <v>0.1246504888820096</v>
       </c>
       <c r="C129">
-        <v>0.1273010915715296</v>
+        <v>0.1455876374062125</v>
       </c>
       <c r="D129">
-        <v>0.1121301463732412</v>
+        <v>0.124167825791968</v>
       </c>
       <c r="E129">
-        <v>0.1099471214171648</v>
+        <v>0.1199203391885425</v>
       </c>
       <c r="F129">
-        <v>0.2213479502902249</v>
+        <v>0.245445561449675</v>
       </c>
       <c r="G129">
-        <v>0.10773825455058</v>
+        <v>0.1213864004787299</v>
       </c>
       <c r="H129">
-        <v>0.1044739900374487</v>
-      </c>
-      <c r="I129">
-        <v>0.1042368053014016</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>0.1188417468028626</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.1249618521357238</v>
+        <v>0.1365448307520532</v>
       </c>
       <c r="C130">
-        <v>0.09288913922609636</v>
+        <v>0.1064764153762363</v>
       </c>
       <c r="D130">
-        <v>0.1366169623752171</v>
+        <v>0.1554343729803348</v>
       </c>
       <c r="E130">
-        <v>0.1255580705679648</v>
+        <v>0.1413529645838036</v>
       </c>
       <c r="F130">
-        <v>0.1936110216652834</v>
+        <v>0.2023983241210272</v>
       </c>
       <c r="G130">
-        <v>0.1393507583601178</v>
+        <v>0.1551825606543913</v>
       </c>
       <c r="H130">
-        <v>0.09026560042775382</v>
-      </c>
-      <c r="I130">
-        <v>0.09674659524184294</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>0.1026105315321539</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.1516272589666084</v>
+        <v>0.1656590246040636</v>
       </c>
       <c r="C131">
-        <v>0.09180842982684224</v>
+        <v>0.1035594644885284</v>
       </c>
       <c r="D131">
-        <v>0.1360457262819101</v>
+        <v>0.1535560196274723</v>
       </c>
       <c r="E131">
-        <v>0.1320537850890839</v>
+        <v>0.1478571991414481</v>
       </c>
       <c r="F131">
-        <v>0.189713209265641</v>
+        <v>0.1967517743780883</v>
       </c>
       <c r="G131">
-        <v>0.10948452425392</v>
+        <v>0.1240577169224714</v>
       </c>
       <c r="H131">
-        <v>0.09649763891582748</v>
-      </c>
-      <c r="I131">
-        <v>0.09276942740016689</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>0.1085588008379278</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.1493952300334497</v>
+        <v>0.1698920772209992</v>
       </c>
       <c r="C132">
-        <v>0.1060738561333527</v>
+        <v>0.119585465890527</v>
       </c>
       <c r="D132">
-        <v>0.1008099339929372</v>
+        <v>0.1074131783623432</v>
       </c>
       <c r="E132">
-        <v>0.09122672335072088</v>
+        <v>0.09612006937476211</v>
       </c>
       <c r="F132">
-        <v>0.2874707751352426</v>
+        <v>0.3114413984800772</v>
       </c>
       <c r="G132">
-        <v>0.07509264135242943</v>
+        <v>0.08721059158138834</v>
       </c>
       <c r="H132">
-        <v>0.09513924886579746</v>
-      </c>
-      <c r="I132">
-        <v>0.09479159113607018</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>0.1083372190899028</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.09871672595804883</v>
+        <v>0.1085743410935442</v>
       </c>
       <c r="C133">
-        <v>0.05348356835419116</v>
+        <v>0.05897583969158528</v>
       </c>
       <c r="D133">
-        <v>0.1523237791210398</v>
+        <v>0.1701632766261254</v>
       </c>
       <c r="E133">
-        <v>0.1487763937318354</v>
+        <v>0.1645672067866493</v>
       </c>
       <c r="F133">
-        <v>0.281082921349712</v>
+        <v>0.3010345734566289</v>
       </c>
       <c r="G133">
-        <v>0.05864883812047865</v>
+        <v>0.06512334205887127</v>
       </c>
       <c r="H133">
-        <v>0.1187349282344781</v>
-      </c>
-      <c r="I133">
-        <v>0.08823284513021601</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>0.1315614202865955</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.1654151231404375</v>
+        <v>0.1837588517219456</v>
       </c>
       <c r="C134">
-        <v>0.1212351910994568</v>
+        <v>0.1410501986841494</v>
       </c>
       <c r="D134">
-        <v>0.1284060959056986</v>
+        <v>0.149853033578008</v>
       </c>
       <c r="E134">
-        <v>0.1238178618396067</v>
+        <v>0.1430111681196989</v>
       </c>
       <c r="F134">
-        <v>0.1300679425110849</v>
+        <v>0.1459095443596983</v>
       </c>
       <c r="G134">
-        <v>0.1169165955129045</v>
+        <v>0.1277658731111413</v>
       </c>
       <c r="H134">
-        <v>0.09560413764516086</v>
-      </c>
-      <c r="I134">
-        <v>0.1185370523456501</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>0.1086513304253586</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.1471107583758103</v>
+        <v>0.1615305115983426</v>
       </c>
       <c r="C135">
-        <v>0.09064198835025633</v>
+        <v>0.1036102159624819</v>
       </c>
       <c r="D135">
-        <v>0.1365046891282432</v>
+        <v>0.1537732260416051</v>
       </c>
       <c r="E135">
-        <v>0.1247690599983112</v>
+        <v>0.1426443305550339</v>
       </c>
       <c r="F135">
-        <v>0.2113868355064059</v>
+        <v>0.2226903507754691</v>
       </c>
       <c r="G135">
-        <v>0.1150494401559184</v>
+        <v>0.1276279352540963</v>
       </c>
       <c r="H135">
-        <v>0.0777611083077973</v>
-      </c>
-      <c r="I135">
-        <v>0.09677612017725734</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>0.08812342981297094</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.1042171770124355</v>
+        <v>0.1192223957422837</v>
       </c>
       <c r="C136">
-        <v>0.139708383048069</v>
+        <v>0.168952372559391</v>
       </c>
       <c r="D136">
-        <v>0.1349980913036412</v>
+        <v>0.15495497615325</v>
       </c>
       <c r="E136">
-        <v>0.1203192684301548</v>
+        <v>0.1376147508668816</v>
       </c>
       <c r="F136">
-        <v>0.1288435576542876</v>
+        <v>0.1528108440135449</v>
       </c>
       <c r="G136">
-        <v>0.09607992418524221</v>
+        <v>0.1137669395728759</v>
       </c>
       <c r="H136">
-        <v>0.1324401860493893</v>
-      </c>
-      <c r="I136">
-        <v>0.1433934123167803</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>0.1526777210917727</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.1356327881332976</v>
+        <v>0.1489818552406738</v>
       </c>
       <c r="C137">
-        <v>0.1002140489123229</v>
+        <v>0.1127130315509376</v>
       </c>
       <c r="D137">
-        <v>0.1173673340864766</v>
+        <v>0.1290669245539446</v>
       </c>
       <c r="E137">
-        <v>0.1180482469492574</v>
+        <v>0.1320171382041917</v>
       </c>
       <c r="F137">
-        <v>0.1967467203370594</v>
+        <v>0.2308307679985778</v>
       </c>
       <c r="G137">
-        <v>0.1103118965539817</v>
+        <v>0.121050606743075</v>
       </c>
       <c r="H137">
-        <v>0.1155412349129714</v>
-      </c>
-      <c r="I137">
-        <v>0.1061377301146331</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>0.1253396757085996</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.129153553461544</v>
+        <v>0.1468145443168532</v>
       </c>
       <c r="C138">
-        <v>0.1133865479544008</v>
+        <v>0.1267849990175979</v>
       </c>
       <c r="D138">
-        <v>0.1253817497823339</v>
+        <v>0.137817140368805</v>
       </c>
       <c r="E138">
-        <v>0.1212231395645974</v>
+        <v>0.1320562834135926</v>
       </c>
       <c r="F138">
-        <v>0.1703209999918713</v>
+        <v>0.1911479447338678</v>
       </c>
       <c r="G138">
-        <v>0.1227011010701884</v>
+        <v>0.135498182354736</v>
       </c>
       <c r="H138">
-        <v>0.1143595527972235</v>
-      </c>
-      <c r="I138">
-        <v>0.1034733553778407</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>0.1298809057945475</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.1092627711445929</v>
+        <v>0.1218994441817516</v>
       </c>
       <c r="C139">
-        <v>0.1290319641713639</v>
+        <v>0.1476024812935688</v>
       </c>
       <c r="D139">
-        <v>0.1314920622513602</v>
+        <v>0.1500894931785034</v>
       </c>
       <c r="E139">
-        <v>0.1229608044160549</v>
+        <v>0.138675969273887</v>
       </c>
       <c r="F139">
-        <v>0.1392760445183463</v>
+        <v>0.157171169413632</v>
       </c>
       <c r="G139">
-        <v>0.1263005625099217</v>
+        <v>0.1496495417840811</v>
       </c>
       <c r="H139">
-        <v>0.1193284042025104</v>
-      </c>
-      <c r="I139">
-        <v>0.1223473867858497</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>0.1349119008745761</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.1260051510436748</v>
+        <v>0.1455148704061577</v>
       </c>
       <c r="C140">
-        <v>0.1257652016720101</v>
+        <v>0.1442483255161054</v>
       </c>
       <c r="D140">
-        <v>0.1257263546254711</v>
+        <v>0.1406216551244135</v>
       </c>
       <c r="E140">
-        <v>0.1164914309626661</v>
+        <v>0.1286976959421551</v>
       </c>
       <c r="F140">
-        <v>0.1554977864322215</v>
+        <v>0.1738010877215183</v>
       </c>
       <c r="G140">
-        <v>0.1152047247874877</v>
+        <v>0.1354048185694762</v>
       </c>
       <c r="H140">
-        <v>0.1144061232997145</v>
-      </c>
-      <c r="I140">
-        <v>0.1209032271767544</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>0.1317115467201739</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.1184201534375559</v>
+        <v>0.1308874008016489</v>
       </c>
       <c r="C141">
-        <v>0.08270326882513897</v>
+        <v>0.09127719622987394</v>
       </c>
       <c r="D141">
-        <v>0.1414164767046181</v>
+        <v>0.1557261535235654</v>
       </c>
       <c r="E141">
-        <v>0.1366570114033516</v>
+        <v>0.1446658337450869</v>
       </c>
       <c r="F141">
-        <v>0.2584598240722896</v>
+        <v>0.2915697546764275</v>
       </c>
       <c r="G141">
-        <v>0.07275920236908623</v>
+        <v>0.08279773536348652</v>
       </c>
       <c r="H141">
-        <v>0.09138862492779092</v>
-      </c>
-      <c r="I141">
-        <v>0.09819543826016859</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>0.1030759256599106</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.1289032710579206</v>
+        <v>0.1478457130197795</v>
       </c>
       <c r="C142">
-        <v>0.1497739010345897</v>
+        <v>0.1727168166799266</v>
       </c>
       <c r="D142">
-        <v>0.07657729712515546</v>
+        <v>0.08667411020727642</v>
       </c>
       <c r="E142">
-        <v>0.07958493590408357</v>
+        <v>0.09030341101444737</v>
       </c>
       <c r="F142">
-        <v>0.1534730249414975</v>
+        <v>0.1781405203479423</v>
       </c>
       <c r="G142">
-        <v>0.1352728370888678</v>
+        <v>0.1645302157938827</v>
       </c>
       <c r="H142">
-        <v>0.1384648039175283</v>
-      </c>
-      <c r="I142">
-        <v>0.137949928930357</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>0.1597892129367449</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.08460320056503859</v>
+        <v>0.1003703050957755</v>
       </c>
       <c r="C143">
-        <v>0.1556963986616324</v>
+        <v>0.1789376853184189</v>
       </c>
       <c r="D143">
-        <v>0.1062848535462715</v>
+        <v>0.1220617864390987</v>
       </c>
       <c r="E143">
-        <v>0.09077032406954659</v>
+        <v>0.1047194097270389</v>
       </c>
       <c r="F143">
-        <v>0.1044562913502921</v>
+        <v>0.1192554572669719</v>
       </c>
       <c r="G143">
-        <v>0.1672352223824703</v>
+        <v>0.1959375040097485</v>
       </c>
       <c r="H143">
-        <v>0.1567467844589726</v>
-      </c>
-      <c r="I143">
-        <v>0.134206924965776</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>0.1787178521429478</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.1047390295311911</v>
+        <v>0.1214252049877649</v>
       </c>
       <c r="C144">
-        <v>0.1121502590310947</v>
+        <v>0.1287388719717894</v>
       </c>
       <c r="D144">
-        <v>0.1293994942721004</v>
+        <v>0.1447912588877349</v>
       </c>
       <c r="E144">
-        <v>0.1324539806407367</v>
+        <v>0.148198894065879</v>
       </c>
       <c r="F144">
-        <v>0.139593096139068</v>
+        <v>0.1519524948850908</v>
       </c>
       <c r="G144">
-        <v>0.1508986573125289</v>
+        <v>0.1701764945525505</v>
       </c>
       <c r="H144">
-        <v>0.1177134132501265</v>
-      </c>
-      <c r="I144">
-        <v>0.1130520698231537</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>0.1347167806491904</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.1210110768234419</v>
+        <v>0.1381844394655173</v>
       </c>
       <c r="C145">
-        <v>0.121603734267993</v>
+        <v>0.1378937088676464</v>
       </c>
       <c r="D145">
-        <v>0.1316096253146249</v>
+        <v>0.1481356745550909</v>
       </c>
       <c r="E145">
-        <v>0.1283486477800382</v>
+        <v>0.1441615512370017</v>
       </c>
       <c r="F145">
-        <v>0.1432698947798628</v>
+        <v>0.1566657448605631</v>
       </c>
       <c r="G145">
-        <v>0.1304985218850124</v>
+        <v>0.1456690680900498</v>
       </c>
       <c r="H145">
-        <v>0.1143617475256685</v>
-      </c>
-      <c r="I145">
-        <v>0.109296751623358</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>0.1292898129241309</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.1074630279600877</v>
+        <v>0.1230721112745836</v>
       </c>
       <c r="C146">
-        <v>0.1238492475155046</v>
+        <v>0.1401249528268088</v>
       </c>
       <c r="D146">
-        <v>0.1340262726660736</v>
+        <v>0.1525052100064617</v>
       </c>
       <c r="E146">
-        <v>0.1201677139971963</v>
+        <v>0.1365669275941374</v>
       </c>
       <c r="F146">
-        <v>0.1136797669976776</v>
+        <v>0.1273835436286613</v>
       </c>
       <c r="G146">
-        <v>0.1480769091329288</v>
+        <v>0.1699946502512113</v>
       </c>
       <c r="H146">
-        <v>0.1322643644953737</v>
-      </c>
-      <c r="I146">
-        <v>0.1204726972351575</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>0.150352604418136</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.1208423719236395</v>
+        <v>0.1349240713789674</v>
       </c>
       <c r="C147">
-        <v>0.1183671480660087</v>
+        <v>0.1347729763844042</v>
       </c>
       <c r="D147">
-        <v>0.1524604691033253</v>
+        <v>0.1689833087080383</v>
       </c>
       <c r="E147">
-        <v>0.137758641042332</v>
+        <v>0.1574628847330869</v>
       </c>
       <c r="F147">
-        <v>0.1103911778354354</v>
+        <v>0.1226362432728901</v>
       </c>
       <c r="G147">
-        <v>0.1194144261425139</v>
+        <v>0.136955859690861</v>
       </c>
       <c r="H147">
-        <v>0.1244682924594884</v>
-      </c>
-      <c r="I147">
-        <v>0.116297473427257</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>0.1442646558317522</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.1458538748785236</v>
+        <v>0.1729335794381197</v>
       </c>
       <c r="C148">
-        <v>0.2180204660762921</v>
+        <v>0.2492867765170113</v>
       </c>
       <c r="D148">
-        <v>0.04447181377282629</v>
+        <v>0.05250692650955693</v>
       </c>
       <c r="E148">
-        <v>0.0681490709169038</v>
+        <v>0.08050139219364598</v>
       </c>
       <c r="F148">
-        <v>0.05144519438487705</v>
+        <v>0.0606461023771194</v>
       </c>
       <c r="G148">
-        <v>0.1741043562636878</v>
+        <v>0.2064291717512947</v>
       </c>
       <c r="H148">
-        <v>0.1498705866411378</v>
-      </c>
-      <c r="I148">
-        <v>0.1480846370657516</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>0.1776960512132519</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.1319249052526634</v>
+        <v>0.1535142323209205</v>
       </c>
       <c r="C149">
-        <v>0.1301908899951499</v>
+        <v>0.149761464891151</v>
       </c>
       <c r="D149">
-        <v>0.06695720262983666</v>
+        <v>0.07725802122986725</v>
       </c>
       <c r="E149">
-        <v>0.07922822929732427</v>
+        <v>0.08965705913137742</v>
       </c>
       <c r="F149">
-        <v>0.0812175806353564</v>
+        <v>0.08643723694647351</v>
       </c>
       <c r="G149">
-        <v>0.2066111613827114</v>
+        <v>0.2348144899802155</v>
       </c>
       <c r="H149">
-        <v>0.1801229625533422</v>
-      </c>
-      <c r="I149">
-        <v>0.1237470682536158</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>0.2085574954999948</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.1633369808872648</v>
+        <v>0.1967124731620691</v>
       </c>
       <c r="C150">
-        <v>0.1655720617739652</v>
+        <v>0.2010249227915615</v>
       </c>
       <c r="D150">
-        <v>0.04609903887130835</v>
+        <v>0.05342995786157996</v>
       </c>
       <c r="E150">
-        <v>0.06551319996384902</v>
+        <v>0.07749001498943198</v>
       </c>
       <c r="F150">
-        <v>0.05328229183698573</v>
+        <v>0.06353897269334219</v>
       </c>
       <c r="G150">
-        <v>0.1758636674963189</v>
+        <v>0.2084194765043494</v>
       </c>
       <c r="H150">
-        <v>0.1622476782524061</v>
-      </c>
-      <c r="I150">
-        <v>0.1680850809179019</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>0.1993841819976658</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.2149607835230584</v>
+        <v>0.2578241860971494</v>
       </c>
       <c r="C151">
-        <v>0.1402932876502246</v>
+        <v>0.1636826548114532</v>
       </c>
       <c r="D151">
-        <v>0.05514277841947673</v>
+        <v>0.06406377755161784</v>
       </c>
       <c r="E151">
-        <v>0.03395012944578644</v>
+        <v>0.03883427966274537</v>
       </c>
       <c r="F151">
-        <v>0.1288199080309503</v>
+        <v>0.1614876173105846</v>
       </c>
       <c r="G151">
-        <v>0.1098205127021914</v>
+        <v>0.127294272117821</v>
       </c>
       <c r="H151">
-        <v>0.1611691918094028</v>
-      </c>
-      <c r="I151">
-        <v>0.1558434084189094</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>0.1868132124486288</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.1476816435986868</v>
+        <v>0.1752910788534392</v>
       </c>
       <c r="C152">
-        <v>0.1873271858331634</v>
+        <v>0.2216609954214824</v>
       </c>
       <c r="D152">
-        <v>0.06039787791554737</v>
+        <v>0.06893948432460469</v>
       </c>
       <c r="E152">
-        <v>0.06483705454583336</v>
+        <v>0.07414801039052887</v>
       </c>
       <c r="F152">
-        <v>0.05450697110423314</v>
+        <v>0.06319749715930616</v>
       </c>
       <c r="G152">
-        <v>0.1667317151724519</v>
+        <v>0.203207934462445</v>
       </c>
       <c r="H152">
-        <v>0.163166616765854</v>
-      </c>
-      <c r="I152">
-        <v>0.1553509350642299</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>0.1935549993881936</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.2113753930180162</v>
+        <v>0.2500251917223491</v>
       </c>
       <c r="C153">
-        <v>0.1725569865073166</v>
+        <v>0.2041088481917792</v>
       </c>
       <c r="D153">
-        <v>0.05650151517856587</v>
+        <v>0.06680243710079077</v>
       </c>
       <c r="E153">
-        <v>0.04695133559771489</v>
+        <v>0.0551496244055907</v>
       </c>
       <c r="F153">
-        <v>0.06847291242629219</v>
+        <v>0.08042481711076825</v>
       </c>
       <c r="G153">
-        <v>0.1257639351051024</v>
+        <v>0.1487597136481884</v>
       </c>
       <c r="H153">
-        <v>0.1646274234992975</v>
-      </c>
-      <c r="I153">
-        <v>0.1537504986676944</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>0.1947293678205336</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.191479536391042</v>
+        <v>0.2283368845945912</v>
       </c>
       <c r="C154">
-        <v>0.1546458411905538</v>
+        <v>0.1868195000406769</v>
       </c>
       <c r="D154">
-        <v>0.05956514000890846</v>
+        <v>0.07097626578027914</v>
       </c>
       <c r="E154">
-        <v>0.07970953080916865</v>
+        <v>0.09183189777429135</v>
       </c>
       <c r="F154">
-        <v>0.05987898072909898</v>
+        <v>0.07059696657317341</v>
       </c>
       <c r="G154">
-        <v>0.1097944104203214</v>
+        <v>0.1373834177246205</v>
       </c>
       <c r="H154">
-        <v>0.1816762071264949</v>
-      </c>
-      <c r="I154">
-        <v>0.1632503533244118</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>0.2140550675123674</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.1308797005080103</v>
+        <v>0.146118272075511</v>
       </c>
       <c r="C155">
-        <v>0.1205493853528474</v>
+        <v>0.1367047038218273</v>
       </c>
       <c r="D155">
-        <v>0.1187465194683873</v>
+        <v>0.1389497754790105</v>
       </c>
       <c r="E155">
-        <v>0.1230607384347783</v>
+        <v>0.1393655560887913</v>
       </c>
       <c r="F155">
-        <v>0.1655916585507023</v>
+        <v>0.1858718409518277</v>
       </c>
       <c r="G155">
-        <v>0.1088427336701237</v>
+        <v>0.1222027657821827</v>
       </c>
       <c r="H155">
-        <v>0.113973908957914</v>
-      </c>
-      <c r="I155">
-        <v>0.1183553550572368</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>0.1307870858008496</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.1159961719862594</v>
+        <v>0.1277252069093436</v>
       </c>
       <c r="C156">
-        <v>0.1278508497518223</v>
+        <v>0.1461339908450627</v>
       </c>
       <c r="D156">
-        <v>0.1494257703509198</v>
+        <v>0.1701978422809439</v>
       </c>
       <c r="E156">
-        <v>0.1271594490136889</v>
+        <v>0.1440320118217239</v>
       </c>
       <c r="F156">
-        <v>0.09600833196341414</v>
+        <v>0.1092224708582539</v>
       </c>
       <c r="G156">
-        <v>0.1381588406132544</v>
+        <v>0.1578979518272157</v>
       </c>
       <c r="H156">
-        <v>0.1273760285726616</v>
-      </c>
-      <c r="I156">
-        <v>0.1180245577479795</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>0.1447905254574564</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.1027300219218766</v>
+        <v>0.1161908233472595</v>
       </c>
       <c r="C157">
-        <v>0.1199828891570016</v>
+        <v>0.1358121129385231</v>
       </c>
       <c r="D157">
-        <v>0.1151071014079166</v>
+        <v>0.126744856297345</v>
       </c>
       <c r="E157">
-        <v>0.122852695024351</v>
+        <v>0.1362884475487428</v>
       </c>
       <c r="F157">
-        <v>0.1660551022875703</v>
+        <v>0.1892600676844327</v>
       </c>
       <c r="G157">
-        <v>0.1427264621975524</v>
+        <v>0.1577876274527432</v>
       </c>
       <c r="H157">
-        <v>0.1181256755492986</v>
-      </c>
-      <c r="I157">
-        <v>0.1124200524544327</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>0.1379160647309537</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.0897642783317026</v>
+        <v>0.1030224382867637</v>
       </c>
       <c r="C158">
-        <v>0.1187351016838342</v>
+        <v>0.1362145888044346</v>
       </c>
       <c r="D158">
-        <v>0.1458639809097561</v>
+        <v>0.1659002397840863</v>
       </c>
       <c r="E158">
-        <v>0.1319393988013045</v>
+        <v>0.1543768432625325</v>
       </c>
       <c r="F158">
-        <v>0.08020818200740225</v>
+        <v>0.09379963310486282</v>
       </c>
       <c r="G158">
-        <v>0.1599443123851608</v>
+        <v>0.1836596735591126</v>
       </c>
       <c r="H158">
-        <v>0.1368455130408655</v>
-      </c>
-      <c r="I158">
-        <v>0.1366992328399741</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>0.1630265831982076</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.1536532573547397</v>
+        <v>0.1783918122260246</v>
       </c>
       <c r="C159">
-        <v>0.1505895645555224</v>
+        <v>0.1756017063073673</v>
       </c>
       <c r="D159">
-        <v>0.0731024055354523</v>
+        <v>0.08323111579107066</v>
       </c>
       <c r="E159">
-        <v>0.08266115815505322</v>
+        <v>0.09292724140209495</v>
       </c>
       <c r="F159">
-        <v>0.07515715493153198</v>
+        <v>0.08623933781714864</v>
       </c>
       <c r="G159">
-        <v>0.1954196679945066</v>
+        <v>0.231282133927388</v>
       </c>
       <c r="H159">
-        <v>0.131963943053297</v>
-      </c>
-      <c r="I159">
-        <v>0.137452848419897</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>0.1523266525289057</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.09127326593377101</v>
+        <v>0.1045690437741703</v>
       </c>
       <c r="C160">
-        <v>0.1381642402967825</v>
+        <v>0.157935017441471</v>
       </c>
       <c r="D160">
-        <v>0.1362812972730337</v>
+        <v>0.1562170229505671</v>
       </c>
       <c r="E160">
-        <v>0.1432840909638414</v>
+        <v>0.1637203698418024</v>
       </c>
       <c r="F160">
-        <v>0.08872571386753909</v>
+        <v>0.0977634487773384</v>
       </c>
       <c r="G160">
-        <v>0.1354467364758037</v>
+        <v>0.1570275780131427</v>
       </c>
       <c r="H160">
-        <v>0.1395117676424011</v>
-      </c>
-      <c r="I160">
-        <v>0.1273128875468274</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>0.1627675192015082</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.1089113663415356</v>
+        <v>0.1228102979976855</v>
       </c>
       <c r="C161">
-        <v>0.1205363310418858</v>
+        <v>0.1376650011564567</v>
       </c>
       <c r="D161">
-        <v>0.1352270015902234</v>
+        <v>0.1547442451795348</v>
       </c>
       <c r="E161">
-        <v>0.144576027680923</v>
+        <v>0.1634309490177327</v>
       </c>
       <c r="F161">
-        <v>0.1320836408042758</v>
+        <v>0.1508018859730655</v>
       </c>
       <c r="G161">
-        <v>0.1154508609981164</v>
+        <v>0.1323432281133018</v>
       </c>
       <c r="H161">
-        <v>0.1194310950426346</v>
-      </c>
-      <c r="I161">
-        <v>0.1237836765004054</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>0.1382043925622231</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.1333812243831672</v>
+        <v>0.1502501620128535</v>
       </c>
       <c r="C162">
-        <v>0.1214191930204645</v>
+        <v>0.1379473863675009</v>
       </c>
       <c r="D162">
-        <v>0.1274381698627417</v>
+        <v>0.1423206493560737</v>
       </c>
       <c r="E162">
-        <v>0.1188288439045971</v>
+        <v>0.1320349148631381</v>
       </c>
       <c r="F162">
-        <v>0.1124024030152778</v>
+        <v>0.1263839139198447</v>
       </c>
       <c r="G162">
-        <v>0.1414176999030239</v>
+        <v>0.1609264125062997</v>
       </c>
       <c r="H162">
-        <v>0.1315052048690833</v>
-      </c>
-      <c r="I162">
-        <v>0.1136072610416446</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>0.1501365609742893</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.111821617056496</v>
+        <v>0.1276647058996679</v>
       </c>
       <c r="C163">
-        <v>0.0945781791553469</v>
+        <v>0.1077695135696431</v>
       </c>
       <c r="D163">
-        <v>0.1384131136739764</v>
+        <v>0.1603663929956559</v>
       </c>
       <c r="E163">
-        <v>0.1433801500841107</v>
+        <v>0.1680273810050056</v>
       </c>
       <c r="F163">
-        <v>0.2116454048576725</v>
+        <v>0.2292936763426152</v>
       </c>
       <c r="G163">
-        <v>0.08025967255214904</v>
+        <v>0.09301137674094438</v>
       </c>
       <c r="H163">
-        <v>0.1002673227928357</v>
-      </c>
-      <c r="I163">
-        <v>0.119634539827413</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>0.1138669534464679</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.1272986704831384</v>
+        <v>0.1414309286051129</v>
       </c>
       <c r="C164">
-        <v>0.1298446363464556</v>
+        <v>0.1495945294539202</v>
       </c>
       <c r="D164">
-        <v>0.1289449134721215</v>
+        <v>0.1450525091152567</v>
       </c>
       <c r="E164">
-        <v>0.1174739103307211</v>
+        <v>0.1313423633660056</v>
       </c>
       <c r="F164">
-        <v>0.1042745132510263</v>
+        <v>0.1249953545757131</v>
       </c>
       <c r="G164">
-        <v>0.1507519646672721</v>
+        <v>0.1716297209747641</v>
       </c>
       <c r="H164">
-        <v>0.1230052417901408</v>
-      </c>
-      <c r="I164">
-        <v>0.118406149659124</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>0.1359545939092274</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.1334161814287641</v>
+        <v>0.1464918477420063</v>
       </c>
       <c r="C165">
-        <v>0.1024573482748156</v>
+        <v>0.1119119220506005</v>
       </c>
       <c r="D165">
-        <v>0.08502108318471711</v>
+        <v>0.09482559127519306</v>
       </c>
       <c r="E165">
-        <v>0.08688802852786177</v>
+        <v>0.09342998807894769</v>
       </c>
       <c r="F165">
-        <v>0.2908423441313566</v>
+        <v>0.3216025229569403</v>
       </c>
       <c r="G165">
-        <v>0.129954499487508</v>
+        <v>0.1416992562286079</v>
       </c>
       <c r="H165">
-        <v>0.08319609942327409</v>
-      </c>
-      <c r="I165">
-        <v>0.08822441554170279</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>0.09003887166770427</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.09776547419898064</v>
+        <v>0.1121410007684374</v>
       </c>
       <c r="C166">
-        <v>0.08429277508092078</v>
+        <v>0.09426543438804875</v>
       </c>
       <c r="D166">
-        <v>0.1906929091049595</v>
+        <v>0.2009149774195927</v>
       </c>
       <c r="E166">
-        <v>0.1445512039316725</v>
+        <v>0.1638564307667195</v>
       </c>
       <c r="F166">
-        <v>0.07981825611428432</v>
+        <v>0.08951346841098942</v>
       </c>
       <c r="G166">
-        <v>0.2205367100628977</v>
+        <v>0.2386320919403734</v>
       </c>
       <c r="H166">
-        <v>0.08618551200695145</v>
-      </c>
-      <c r="I166">
-        <v>0.09615715949933314</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>0.1006765963058389</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.1100946814030334</v>
+        <v>0.1248139363288791</v>
       </c>
       <c r="C167">
-        <v>0.1169914131644658</v>
+        <v>0.133419888081769</v>
       </c>
       <c r="D167">
-        <v>0.1370405128134103</v>
+        <v>0.1555733311500375</v>
       </c>
       <c r="E167">
-        <v>0.1482285184351985</v>
+        <v>0.1677008587853833</v>
       </c>
       <c r="F167">
-        <v>0.106154862700882</v>
+        <v>0.1193691158431446</v>
       </c>
       <c r="G167">
-        <v>0.1431819337689082</v>
+        <v>0.1599067436265131</v>
       </c>
       <c r="H167">
-        <v>0.122253212456222</v>
-      </c>
-      <c r="I167">
-        <v>0.1160548652578796</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>0.1392161261842734</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.1177820888102977</v>
+        <v>0.130840904172206</v>
       </c>
       <c r="C168">
-        <v>0.1246258040865341</v>
+        <v>0.137424158945657</v>
       </c>
       <c r="D168">
-        <v>0.1440622182315601</v>
+        <v>0.160631692315367</v>
       </c>
       <c r="E168">
-        <v>0.1305338246333472</v>
+        <v>0.148003683973856</v>
       </c>
       <c r="F168">
-        <v>0.1050807749073919</v>
+        <v>0.1164663344991548</v>
       </c>
       <c r="G168">
-        <v>0.1503960781342674</v>
+        <v>0.1694260614078725</v>
       </c>
       <c r="H168">
-        <v>0.1187181969424324</v>
-      </c>
-      <c r="I168">
-        <v>0.1088010142541691</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>0.1372071646858867</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.1020903137853893</v>
+        <v>0.1141830470786735</v>
       </c>
       <c r="C169">
-        <v>0.1047366642102187</v>
+        <v>0.1088311539071319</v>
       </c>
       <c r="D169">
-        <v>0.1454794663345972</v>
+        <v>0.1645757217354995</v>
       </c>
       <c r="E169">
-        <v>0.1593773656622205</v>
+        <v>0.177764336383176</v>
       </c>
       <c r="F169">
-        <v>0.1019691752753216</v>
+        <v>0.1124379842553227</v>
       </c>
       <c r="G169">
-        <v>0.1742870596659728</v>
+        <v>0.1883845359232564</v>
       </c>
       <c r="H169">
-        <v>0.1186930373705047</v>
-      </c>
-      <c r="I169">
-        <v>0.09336691769577508</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>0.1338232207169401</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.160789287724544</v>
+        <v>0.1839161730718566</v>
       </c>
       <c r="C170">
-        <v>0.118788389708952</v>
+        <v>0.1326518702010939</v>
       </c>
       <c r="D170">
-        <v>0.1386018178191623</v>
+        <v>0.1518369297263168</v>
       </c>
       <c r="E170">
-        <v>0.1315947910025225</v>
+        <v>0.145343809828483</v>
       </c>
       <c r="F170">
-        <v>0.0881515944648909</v>
+        <v>0.104133664180868</v>
       </c>
       <c r="G170">
-        <v>0.1319319124646129</v>
+        <v>0.1472325246369708</v>
       </c>
       <c r="H170">
-        <v>0.119880123372392</v>
-      </c>
-      <c r="I170">
-        <v>0.1102620834429234</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>0.134885028354411</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.1115490336306767</v>
+        <v>0.1204651255655062</v>
       </c>
       <c r="C171">
-        <v>0.1325002246728684</v>
+        <v>0.1534542083489182</v>
       </c>
       <c r="D171">
-        <v>0.1273876860600967</v>
+        <v>0.1394625709715086</v>
       </c>
       <c r="E171">
-        <v>0.1281255021489082</v>
+        <v>0.1566288289895937</v>
       </c>
       <c r="F171">
-        <v>0.1373383454766823</v>
+        <v>0.1480045882710059</v>
       </c>
       <c r="G171">
-        <v>0.09535546884020964</v>
+        <v>0.1107427521584766</v>
       </c>
       <c r="H171">
-        <v>0.141715779798926</v>
-      </c>
-      <c r="I171">
-        <v>0.1260279593716322</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>0.1712419256949909</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.1150079798798514</v>
+        <v>0.1303461526627992</v>
       </c>
       <c r="C172">
-        <v>0.1293558586789399</v>
+        <v>0.1459739738059403</v>
       </c>
       <c r="D172">
-        <v>0.1340932873140577</v>
+        <v>0.1502432389856211</v>
       </c>
       <c r="E172">
-        <v>0.1257947435807256</v>
+        <v>0.141546992230736</v>
       </c>
       <c r="F172">
-        <v>0.1119638039080655</v>
+        <v>0.1243373516467783</v>
       </c>
       <c r="G172">
-        <v>0.1265826297666975</v>
+        <v>0.1527168273950466</v>
       </c>
       <c r="H172">
-        <v>0.1365976888214849</v>
-      </c>
-      <c r="I172">
-        <v>0.1206040080501775</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>0.1548354632730786</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.1627599412668413</v>
+        <v>0.1791891655168947</v>
       </c>
       <c r="C173">
-        <v>0.08138487757088381</v>
+        <v>0.09517107204864525</v>
       </c>
       <c r="D173">
-        <v>0.09643623493569416</v>
+        <v>0.1025225069757015</v>
       </c>
       <c r="E173">
-        <v>0.08127892652806408</v>
+        <v>0.08915323570479072</v>
       </c>
       <c r="F173">
-        <v>0.3115646493792695</v>
+        <v>0.346557277519199</v>
       </c>
       <c r="G173">
-        <v>0.09731795635234405</v>
+        <v>0.1049235411420757</v>
       </c>
       <c r="H173">
-        <v>0.07556833899680973</v>
-      </c>
-      <c r="I173">
-        <v>0.09368907497009329</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>0.08248320109269311</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.1158168645511304</v>
+        <v>0.1265438947084649</v>
       </c>
       <c r="C174">
-        <v>0.1103040069712016</v>
+        <v>0.1247846896807909</v>
       </c>
       <c r="D174">
-        <v>0.1356202943247765</v>
+        <v>0.1528753169434185</v>
       </c>
       <c r="E174">
-        <v>0.1314801218971379</v>
+        <v>0.1469755847640354</v>
       </c>
       <c r="F174">
-        <v>0.1265911488922066</v>
+        <v>0.1344239780257776</v>
       </c>
       <c r="G174">
-        <v>0.1617429248574163</v>
+        <v>0.1916862879855835</v>
       </c>
       <c r="H174">
-        <v>0.1095673214541073</v>
-      </c>
-      <c r="I174">
-        <v>0.1088773170520234</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>0.1227102478919292</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.120200437586932</v>
+        <v>0.130647440717306</v>
       </c>
       <c r="C175">
-        <v>0.1068721323868305</v>
+        <v>0.1219526536323521</v>
       </c>
       <c r="D175">
-        <v>0.1328445397794866</v>
+        <v>0.1505164686232959</v>
       </c>
       <c r="E175">
-        <v>0.1264101116246876</v>
+        <v>0.1427861502029597</v>
       </c>
       <c r="F175">
-        <v>0.1224363978797884</v>
+        <v>0.1280976914672582</v>
       </c>
       <c r="G175">
-        <v>0.1721883903339061</v>
+        <v>0.2088736465767505</v>
       </c>
       <c r="H175">
-        <v>0.1052588944559838</v>
-      </c>
-      <c r="I175">
-        <v>0.1137890959523851</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>0.1171259487800775</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.1406332570606642</v>
+        <v>0.1570334687229041</v>
       </c>
       <c r="C176">
-        <v>0.1027989085885818</v>
+        <v>0.1159800550124145</v>
       </c>
       <c r="D176">
-        <v>0.1390506911258061</v>
+        <v>0.158022889195186</v>
       </c>
       <c r="E176">
-        <v>0.1343384820723588</v>
+        <v>0.1525494934701704</v>
       </c>
       <c r="F176">
-        <v>0.1502834730673889</v>
+        <v>0.16294718473263</v>
       </c>
       <c r="G176">
-        <v>0.1226034579567279</v>
+        <v>0.1365729080594273</v>
       </c>
       <c r="H176">
-        <v>0.1040891145771341</v>
-      </c>
-      <c r="I176">
-        <v>0.1062026155513384</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>0.1168940008072678</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.1599313715779632</v>
+        <v>0.1742980988681013</v>
       </c>
       <c r="C177">
-        <v>0.0712847192053787</v>
+        <v>0.0817474183419442</v>
       </c>
       <c r="D177">
-        <v>0.1091787777231803</v>
+        <v>0.1202660443732963</v>
       </c>
       <c r="E177">
-        <v>0.09241842595247639</v>
+        <v>0.09661286274597414</v>
       </c>
       <c r="F177">
-        <v>0.2843572437189588</v>
+        <v>0.3189003471767883</v>
       </c>
       <c r="G177">
-        <v>0.1120559358862924</v>
+        <v>0.122723071364121</v>
       </c>
       <c r="H177">
-        <v>0.08071307414445886</v>
-      </c>
-      <c r="I177">
-        <v>0.09006045179129145</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>0.08545215712977468</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.1342184265759007</v>
+        <v>0.1556260459371972</v>
       </c>
       <c r="C178">
-        <v>0.1150065349064565</v>
+        <v>0.1256798536679288</v>
       </c>
       <c r="D178">
-        <v>0.1336769810571167</v>
+        <v>0.1471042467974724</v>
       </c>
       <c r="E178">
-        <v>0.1180234627601639</v>
+        <v>0.1298114580059727</v>
       </c>
       <c r="F178">
-        <v>0.1905692185702311</v>
+        <v>0.2007942878757165</v>
       </c>
       <c r="G178">
-        <v>0.1316072301409155</v>
+        <v>0.1467981322220604</v>
       </c>
       <c r="H178">
-        <v>0.08211972599164039</v>
-      </c>
-      <c r="I178">
-        <v>0.09477841999757533</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>0.09418597549365193</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.1276411573843495</v>
+        <v>0.1452587289444663</v>
       </c>
       <c r="C179">
-        <v>0.1179210005440965</v>
+        <v>0.134887815777042</v>
       </c>
       <c r="D179">
-        <v>0.120801699442365</v>
+        <v>0.1382504896933762</v>
       </c>
       <c r="E179">
-        <v>0.1106149498484569</v>
+        <v>0.1263609129401639</v>
       </c>
       <c r="F179">
-        <v>0.147128552769495</v>
+        <v>0.159314277028492</v>
       </c>
       <c r="G179">
-        <v>0.1397345215882032</v>
+        <v>0.1614625586203079</v>
       </c>
       <c r="H179">
-        <v>0.1172728889033406</v>
-      </c>
-      <c r="I179">
-        <v>0.1188852295196933</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>0.1344652169961516</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.1336384120099359</v>
+        <v>0.1482112584281537</v>
       </c>
       <c r="C180">
-        <v>0.09085535732116262</v>
+        <v>0.1031298698187595</v>
       </c>
       <c r="D180">
-        <v>0.1436284236071051</v>
+        <v>0.1581168831899094</v>
       </c>
       <c r="E180">
-        <v>0.137636070669429</v>
+        <v>0.1535111479810125</v>
       </c>
       <c r="F180">
-        <v>0.113087753823322</v>
+        <v>0.1254574681799208</v>
       </c>
       <c r="G180">
-        <v>0.1485752896713263</v>
+        <v>0.1767110342489045</v>
       </c>
       <c r="H180">
-        <v>0.1198460752542265</v>
-      </c>
-      <c r="I180">
-        <v>0.1127326176434926</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>0.1348623381533396</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.1175363172183869</v>
+        <v>0.1346116382006664</v>
       </c>
       <c r="C181">
-        <v>0.1244634199572026</v>
+        <v>0.1427814002465926</v>
       </c>
       <c r="D181">
-        <v>0.1109547830998385</v>
+        <v>0.1262445953602628</v>
       </c>
       <c r="E181">
-        <v>0.09604254819284765</v>
+        <v>0.1100599201512099</v>
       </c>
       <c r="F181">
-        <v>0.1220737440805177</v>
+        <v>0.1408127759352278</v>
       </c>
       <c r="G181">
-        <v>0.1788307549473997</v>
+        <v>0.2016199580803199</v>
       </c>
       <c r="H181">
-        <v>0.1257555313548291</v>
-      </c>
-      <c r="I181">
-        <v>0.1243429011489777</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>0.1438697120257207</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.1495160991581661</v>
+        <v>0.1679639336903994</v>
       </c>
       <c r="C182">
-        <v>0.1154630241145522</v>
+        <v>0.131024431877525</v>
       </c>
       <c r="D182">
-        <v>0.1282945285282944</v>
+        <v>0.1448521860310903</v>
       </c>
       <c r="E182">
-        <v>0.13388425265278</v>
+        <v>0.1488760144524989</v>
       </c>
       <c r="F182">
-        <v>0.1277132250683959</v>
+        <v>0.1432103474726908</v>
       </c>
       <c r="G182">
-        <v>0.1099913016916885</v>
+        <v>0.1263798739933229</v>
       </c>
       <c r="H182">
-        <v>0.1209080296159545</v>
-      </c>
-      <c r="I182">
-        <v>0.1142295391701685</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>0.1376932124824727</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.127775828287323</v>
+        <v>0.145013610790351</v>
       </c>
       <c r="C183">
-        <v>0.1112957364358516</v>
+        <v>0.1263807765106125</v>
       </c>
       <c r="D183">
-        <v>0.1324494532176888</v>
+        <v>0.1493971055054095</v>
       </c>
       <c r="E183">
-        <v>0.1145596930261123</v>
+        <v>0.1274123538354694</v>
       </c>
       <c r="F183">
-        <v>0.1306157027850887</v>
+        <v>0.1485395161303952</v>
       </c>
       <c r="G183">
-        <v>0.1260161235736404</v>
+        <v>0.1520857674020669</v>
       </c>
       <c r="H183">
-        <v>0.1330442443976937</v>
-      </c>
-      <c r="I183">
-        <v>0.1242432182766017</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>0.1511708698256953</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.1458963364371141</v>
+        <v>0.1633518459695801</v>
       </c>
       <c r="C184">
-        <v>0.1067145455118492</v>
+        <v>0.1209889142583026</v>
       </c>
       <c r="D184">
-        <v>0.1311280856393418</v>
+        <v>0.1476948795105101</v>
       </c>
       <c r="E184">
-        <v>0.1386500009412878</v>
+        <v>0.1559472789457656</v>
       </c>
       <c r="F184">
-        <v>0.1158414211909829</v>
+        <v>0.1296174739984699</v>
       </c>
       <c r="G184">
-        <v>0.1470564420741262</v>
+        <v>0.1633611264051738</v>
       </c>
       <c r="H184">
-        <v>0.104150876315823</v>
-      </c>
-      <c r="I184">
-        <v>0.1105622918894749</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>0.1190384809121979</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.1538728282973188</v>
+        <v>0.1634351211664033</v>
       </c>
       <c r="C185">
-        <v>0.05735271782762683</v>
+        <v>0.06519760139945491</v>
       </c>
       <c r="D185">
-        <v>0.1519195525354249</v>
+        <v>0.1697625798083129</v>
       </c>
       <c r="E185">
-        <v>0.1459303453287886</v>
+        <v>0.1557532988467562</v>
       </c>
       <c r="F185">
-        <v>0.257920022622691</v>
+        <v>0.2828223262771802</v>
       </c>
       <c r="G185">
-        <v>0.0306925991494767</v>
+        <v>0.03058371626379807</v>
       </c>
       <c r="H185">
-        <v>0.1181548676349485</v>
-      </c>
-      <c r="I185">
-        <v>0.08415706660372473</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>0.1324453562380944</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.1251836338492041</v>
+        <v>0.1457847574132118</v>
       </c>
       <c r="C186">
-        <v>0.1351935291920047</v>
+        <v>0.1560306912017151</v>
       </c>
       <c r="D186">
-        <v>0.09783103859214028</v>
+        <v>0.1133294920712915</v>
       </c>
       <c r="E186">
-        <v>0.08498452610479473</v>
+        <v>0.09831130793049879</v>
       </c>
       <c r="F186">
-        <v>0.1262187836547703</v>
+        <v>0.1473030378870817</v>
       </c>
       <c r="G186">
-        <v>0.1638161216192997</v>
+        <v>0.1893808314953045</v>
       </c>
       <c r="H186">
-        <v>0.1297857159808072</v>
-      </c>
-      <c r="I186">
-        <v>0.136986651006979</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>0.1498598820008967</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.116668709792938</v>
+        <v>0.1335001704650175</v>
       </c>
       <c r="C187">
-        <v>0.1334537829897234</v>
+        <v>0.1522953765076389</v>
       </c>
       <c r="D187">
-        <v>0.1010597588826435</v>
+        <v>0.111671636619992</v>
       </c>
       <c r="E187">
-        <v>0.09175664793295135</v>
+        <v>0.1034264663272287</v>
       </c>
       <c r="F187">
-        <v>0.1459180313540858</v>
+        <v>0.1685678554104802</v>
       </c>
       <c r="G187">
-        <v>0.1640029268825364</v>
+        <v>0.1879775710213301</v>
       </c>
       <c r="H187">
-        <v>0.1241299924993636</v>
-      </c>
-      <c r="I187">
-        <v>0.1230101496657578</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>0.1425609236483124</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.1640056289336506</v>
+        <v>0.1964243195398687</v>
       </c>
       <c r="C188">
-        <v>0.1631208776738946</v>
+        <v>0.1919822587725178</v>
       </c>
       <c r="D188">
-        <v>0.06375250976997036</v>
+        <v>0.07494694030641427</v>
       </c>
       <c r="E188">
-        <v>0.07318353603494475</v>
+        <v>0.08575754521748861</v>
       </c>
       <c r="F188">
-        <v>0.09284145333122923</v>
+        <v>0.1119904526117635</v>
       </c>
       <c r="G188">
-        <v>0.1337286351012832</v>
+        <v>0.1553351383184757</v>
       </c>
       <c r="H188">
-        <v>0.155324266842373</v>
-      </c>
-      <c r="I188">
-        <v>0.1540430923126543</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>0.1835633452334714</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.15029732361809</v>
+        <v>0.1824615106854448</v>
       </c>
       <c r="C189">
-        <v>0.1673565594281322</v>
+        <v>0.1988479325923583</v>
       </c>
       <c r="D189">
-        <v>0.06276422962840855</v>
+        <v>0.07490993459668231</v>
       </c>
       <c r="E189">
-        <v>0.09199982672980099</v>
+        <v>0.114444778893785</v>
       </c>
       <c r="F189">
-        <v>0.05190514145143256</v>
+        <v>0.06177374096258733</v>
       </c>
       <c r="G189">
-        <v>0.156538754564565</v>
+        <v>0.1840425548273412</v>
       </c>
       <c r="H189">
-        <v>0.1537893321305788</v>
-      </c>
-      <c r="I189">
-        <v>0.165348832448992</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>0.1835195474418009</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.1380400860492746</v>
+        <v>0.1533756727761805</v>
       </c>
       <c r="C190">
-        <v>0.1182089911981417</v>
+        <v>0.1357800729388514</v>
       </c>
       <c r="D190">
-        <v>0.128378790842774</v>
+        <v>0.1474704871644167</v>
       </c>
       <c r="E190">
-        <v>0.1142879590701617</v>
+        <v>0.13080413950252</v>
       </c>
       <c r="F190">
-        <v>0.1158162428046103</v>
+        <v>0.1330972644849278</v>
       </c>
       <c r="G190">
-        <v>0.1400102964558377</v>
+        <v>0.1560446266017294</v>
       </c>
       <c r="H190">
-        <v>0.1286062612333658</v>
-      </c>
-      <c r="I190">
-        <v>0.1166513723458342</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>0.1434277365313744</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.1058660665007747</v>
+        <v>0.1219025504091735</v>
       </c>
       <c r="C191">
-        <v>0.110444248054971</v>
+        <v>0.1273397102525108</v>
       </c>
       <c r="D191">
-        <v>0.1462729359411496</v>
+        <v>0.1635140738114365</v>
       </c>
       <c r="E191">
-        <v>0.1183521203589317</v>
+        <v>0.1341591894419877</v>
       </c>
       <c r="F191">
-        <v>0.1064851884369449</v>
+        <v>0.1213819612341412</v>
       </c>
       <c r="G191">
-        <v>0.1556073342646123</v>
+        <v>0.1768760226557449</v>
       </c>
       <c r="H191">
-        <v>0.1353676902425138</v>
-      </c>
-      <c r="I191">
-        <v>0.121604416200102</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>0.1548264921950055</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.1130028840556201</v>
+        <v>0.1259993629397602</v>
       </c>
       <c r="C192">
-        <v>0.1230266973275001</v>
+        <v>0.1352561192438732</v>
       </c>
       <c r="D192">
-        <v>0.1543350309944246</v>
+        <v>0.1733807748104595</v>
       </c>
       <c r="E192">
-        <v>0.1354700112938313</v>
+        <v>0.1527767708312783</v>
       </c>
       <c r="F192">
-        <v>0.09454225690947053</v>
+        <v>0.1100651056287595</v>
       </c>
       <c r="G192">
-        <v>0.1395520030518101</v>
+        <v>0.1581472926986852</v>
       </c>
       <c r="H192">
-        <v>0.1276608340537001</v>
-      </c>
-      <c r="I192">
-        <v>0.1124102823136432</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>0.1443745738471839</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.1112537976453194</v>
+        <v>0.1320999927423047</v>
       </c>
       <c r="C193">
-        <v>0.1289925076563386</v>
+        <v>0.1452393333890637</v>
       </c>
       <c r="D193">
-        <v>0.1242692889660218</v>
+        <v>0.1389675311830413</v>
       </c>
       <c r="E193">
-        <v>0.1079265583451364</v>
+        <v>0.1186720685918096</v>
       </c>
       <c r="F193">
-        <v>0.1071945741984472</v>
+        <v>0.1295531588078248</v>
       </c>
       <c r="G193">
-        <v>0.1611345353933242</v>
+        <v>0.1811548293970921</v>
       </c>
       <c r="H193">
-        <v>0.1342395969491144</v>
-      </c>
-      <c r="I193">
-        <v>0.1249891408462981</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>0.1543130858888638</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.1119302295277264</v>
+        <v>0.1245894083512816</v>
       </c>
       <c r="C194">
-        <v>0.1612600861781963</v>
+        <v>0.1859472846633517</v>
       </c>
       <c r="D194">
-        <v>0.1002534721222058</v>
+        <v>0.114249939207654</v>
       </c>
       <c r="E194">
-        <v>0.1109093057814982</v>
+        <v>0.1258668869856405</v>
       </c>
       <c r="F194">
-        <v>0.1039654031434413</v>
+        <v>0.1173171298689596</v>
       </c>
       <c r="G194">
-        <v>0.1576351071005371</v>
+        <v>0.1798500068913719</v>
       </c>
       <c r="H194">
-        <v>0.137154187410012</v>
-      </c>
-      <c r="I194">
-        <v>0.1168922087363828</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>0.1521793440317408</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.1600518728459071</v>
+        <v>0.1880256183587232</v>
       </c>
       <c r="C195">
-        <v>0.1766661733173975</v>
+        <v>0.1972985829517562</v>
       </c>
       <c r="D195">
-        <v>0.06510212809473823</v>
+        <v>0.07271519360090981</v>
       </c>
       <c r="E195">
-        <v>0.1253048236291963</v>
+        <v>0.1357159711087015</v>
       </c>
       <c r="F195">
-        <v>0.05690882002452864</v>
+        <v>0.06262598084055043</v>
       </c>
       <c r="G195">
-        <v>0.1414447132985933</v>
+        <v>0.1570397039834484</v>
       </c>
       <c r="H195">
-        <v>0.1627263025720815</v>
-      </c>
-      <c r="I195">
-        <v>0.1117951662175574</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>0.1865789491559105</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.1333669318662066</v>
+        <v>0.1523505943937436</v>
       </c>
       <c r="C196">
-        <v>0.1295835887266659</v>
+        <v>0.1463978235041084</v>
       </c>
       <c r="D196">
-        <v>0.1269086387915066</v>
+        <v>0.1424617985129293</v>
       </c>
       <c r="E196">
-        <v>0.1235058399539336</v>
+        <v>0.1375871644887476</v>
       </c>
       <c r="F196">
-        <v>0.1133701275211654</v>
+        <v>0.1252071828574932</v>
       </c>
       <c r="G196">
-        <v>0.1372350140958058</v>
+        <v>0.155041130945146</v>
       </c>
       <c r="H196">
-        <v>0.1221345277116834</v>
-      </c>
-      <c r="I196">
-        <v>0.1138953313330328</v>
+        <v>0.1409543052978318</v>
       </c>
     </row>
   </sheetData>
